--- a/MotorData.xlsx
+++ b/MotorData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark\Documents\GitHub\Cube\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6CC4932-3324-46B1-8136-B932D6456795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E475622F-A623-40B2-A507-490DFFFA9955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{EC7B1352-56D2-4F86-A349-4A1459A01683}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{EC7B1352-56D2-4F86-A349-4A1459A01683}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3400,6 +3400,20 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet2!$D$2:$D$465</c:f>
@@ -3407,451 +3421,451 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="464"/>
                 <c:pt idx="0">
-                  <c:v>1.0509999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.151</c:v>
+                  <c:v>0.10000000000000009</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2509999999999999</c:v>
+                  <c:v>0.19999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.351</c:v>
+                  <c:v>0.30000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.4510000000000001</c:v>
+                  <c:v>0.40000000000000013</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.5509999999999999</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.651</c:v>
+                  <c:v>0.60000000000000009</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.7509999999999999</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.851</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.9510000000000001</c:v>
+                  <c:v>0.90000000000000013</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.0510000000000002</c:v>
+                  <c:v>1.0000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.1509999999999998</c:v>
+                  <c:v>1.0999999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.2509999999999999</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.351</c:v>
+                  <c:v>1.3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.4510000000000001</c:v>
+                  <c:v>1.4000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.5510000000000002</c:v>
+                  <c:v>1.5000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.6509999999999998</c:v>
+                  <c:v>1.5999999999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.7509999999999999</c:v>
+                  <c:v>1.7</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.851</c:v>
+                  <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.9510000000000001</c:v>
+                  <c:v>1.9000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.0510000000000002</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.1509999999999998</c:v>
+                  <c:v>2.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.2509999999999999</c:v>
+                  <c:v>2.2000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.351</c:v>
+                  <c:v>2.2999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.4510000000000001</c:v>
+                  <c:v>2.4000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.5510000000000002</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.6509999999999998</c:v>
+                  <c:v>2.5999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.7509999999999999</c:v>
+                  <c:v>2.7</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.851</c:v>
+                  <c:v>2.8</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.9510000000000001</c:v>
+                  <c:v>2.9000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4.0510000000000002</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4.1509999999999998</c:v>
+                  <c:v>3.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4.2510000000000003</c:v>
+                  <c:v>3.2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4.351</c:v>
+                  <c:v>3.3</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>4.4509999999999996</c:v>
+                  <c:v>3.3999999999999995</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4.5510000000000002</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4.6509999999999998</c:v>
+                  <c:v>3.5999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4.7510000000000003</c:v>
+                  <c:v>3.7</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4.851</c:v>
+                  <c:v>3.8</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4.9509999999999996</c:v>
+                  <c:v>3.8999999999999995</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>5.0510000000000002</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>5.1509999999999998</c:v>
+                  <c:v>4.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>5.2510000000000003</c:v>
+                  <c:v>4.2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>5.351</c:v>
+                  <c:v>4.3</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>5.4509999999999996</c:v>
+                  <c:v>4.3999999999999995</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>5.5510000000000002</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>5.6509999999999998</c:v>
+                  <c:v>4.5999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>5.7510000000000003</c:v>
+                  <c:v>4.7</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>5.851</c:v>
+                  <c:v>4.8</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>5.9509999999999996</c:v>
+                  <c:v>4.8999999999999995</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>6.0510000000000002</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>6.1509999999999998</c:v>
+                  <c:v>5.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>6.2510000000000003</c:v>
+                  <c:v>5.2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>6.351</c:v>
+                  <c:v>5.3</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>6.4509999999999996</c:v>
+                  <c:v>5.3999999999999995</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>6.5510000000000002</c:v>
+                  <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>6.6509999999999998</c:v>
+                  <c:v>5.6</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>6.7510000000000003</c:v>
+                  <c:v>5.7</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>6.851</c:v>
+                  <c:v>5.8</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>6.9509999999999996</c:v>
+                  <c:v>5.8999999999999995</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>7.0510000000000002</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>7.1509999999999998</c:v>
+                  <c:v>6.1</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>7.2510000000000003</c:v>
+                  <c:v>6.2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>7.351</c:v>
+                  <c:v>6.3</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>7.4509999999999996</c:v>
+                  <c:v>6.3999999999999995</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>7.5510000000000002</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>7.6509999999999998</c:v>
+                  <c:v>6.6</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>7.7510000000000003</c:v>
+                  <c:v>6.7</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>7.851</c:v>
+                  <c:v>6.8</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>7.9509999999999996</c:v>
+                  <c:v>6.8999999999999995</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>8.0510000000000002</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>8.1509999999999998</c:v>
+                  <c:v>7.1</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>8.2509999999999994</c:v>
+                  <c:v>7.1999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>8.3510000000000009</c:v>
+                  <c:v>7.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>8.4510000000000005</c:v>
+                  <c:v>7.4</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>8.5510000000000002</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>8.6509999999999998</c:v>
+                  <c:v>7.6</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>8.7509999999999994</c:v>
+                  <c:v>7.6999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>8.8510000000000009</c:v>
+                  <c:v>7.8000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>8.9510000000000005</c:v>
+                  <c:v>7.9</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>9.0510000000000002</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>9.1509999999999998</c:v>
+                  <c:v>8.1</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>9.2509999999999994</c:v>
+                  <c:v>8.1999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>9.3510000000000009</c:v>
+                  <c:v>8.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>9.4510000000000005</c:v>
+                  <c:v>8.4</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>9.5510000000000002</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>9.6509999999999998</c:v>
+                  <c:v>8.6</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>9.7509999999999994</c:v>
+                  <c:v>8.6999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>9.8510000000000009</c:v>
+                  <c:v>8.8000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>9.9510000000000005</c:v>
+                  <c:v>8.9</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>10.051</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>10.151</c:v>
+                  <c:v>9.1</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>10.250999999999999</c:v>
+                  <c:v>9.1999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>10.351000000000001</c:v>
+                  <c:v>9.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>10.451000000000001</c:v>
+                  <c:v>9.4</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>10.551</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>10.651</c:v>
+                  <c:v>9.6</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>10.750999999999999</c:v>
+                  <c:v>9.6999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>10.851000000000001</c:v>
+                  <c:v>9.8000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>10.951000000000001</c:v>
+                  <c:v>9.9</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>11.051</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>11.151</c:v>
+                  <c:v>10.1</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>11.250999999999999</c:v>
+                  <c:v>10.199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>11.351000000000001</c:v>
+                  <c:v>10.3</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>11.451000000000001</c:v>
+                  <c:v>10.4</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>11.551</c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>11.651</c:v>
+                  <c:v>10.6</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>11.750999999999999</c:v>
+                  <c:v>10.7</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>11.851000000000001</c:v>
+                  <c:v>10.8</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>11.951000000000001</c:v>
+                  <c:v>10.9</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>12.051</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>12.151</c:v>
+                  <c:v>11.1</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>12.250999999999999</c:v>
+                  <c:v>11.2</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>12.351000000000001</c:v>
+                  <c:v>11.3</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>12.451000000000001</c:v>
+                  <c:v>11.4</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>12.551</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>12.651</c:v>
+                  <c:v>11.6</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>12.750999999999999</c:v>
+                  <c:v>11.7</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>12.851000000000001</c:v>
+                  <c:v>11.8</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>12.951000000000001</c:v>
+                  <c:v>11.9</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>13.051</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>13.151</c:v>
+                  <c:v>12.1</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>13.250999999999999</c:v>
+                  <c:v>12.2</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>13.351000000000001</c:v>
+                  <c:v>12.3</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>13.451000000000001</c:v>
+                  <c:v>12.4</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>13.551</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>13.651</c:v>
+                  <c:v>12.6</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>13.750999999999999</c:v>
+                  <c:v>12.7</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>13.851000000000001</c:v>
+                  <c:v>12.8</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>13.951000000000001</c:v>
+                  <c:v>12.9</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>14.051</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>14.151</c:v>
+                  <c:v>13.1</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>14.250999999999999</c:v>
+                  <c:v>13.2</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>14.351000000000001</c:v>
+                  <c:v>13.3</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>14.451000000000001</c:v>
+                  <c:v>13.4</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>14.551</c:v>
+                  <c:v>13.5</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>14.651</c:v>
+                  <c:v>13.6</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>14.750999999999999</c:v>
+                  <c:v>13.7</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>14.851000000000001</c:v>
+                  <c:v>13.8</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>14.951000000000001</c:v>
+                  <c:v>13.9</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>15.051</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>15.151</c:v>
+                  <c:v>14.1</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>15.250999999999999</c:v>
+                  <c:v>14.2</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>15.351000000000001</c:v>
+                  <c:v>14.3</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>15.451000000000001</c:v>
+                  <c:v>14.4</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>15.551</c:v>
+                  <c:v>14.5</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>15.651</c:v>
+                  <c:v>14.6</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>15.750999999999999</c:v>
+                  <c:v>14.7</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>15.851000000000001</c:v>
+                  <c:v>14.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4316,6 +4330,595 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-EFB0-4D78-A2C6-88201EB7C32C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Approx Eqn</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$2:$D$92</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="91"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.10000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.40000000000000013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.60000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.90000000000000013</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.5999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.3999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.8999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.3999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.8999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.3999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.8999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.3999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.8999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$E$2:$E$92</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="91"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2674130677869373</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.25089028037321</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.9751054601975486</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.46258829220216</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.733910647845402</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.807856717691163</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.701578359598106</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19.430736947262563</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21.009632892224605</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22.451323910504602</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23.767733011953769</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24.969747105407496</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26.067307035121466</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>27.069489793106001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>27.984583587267416</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>28.820156386181658</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>29.583118507376224</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>30.279779766735217</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>30.915901661662019</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>31.49674501956251</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>32.027113505709238</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>32.511393350303365</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>32.953589623283314</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>33.357359356878661</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>33.726041789837666</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>34.062685983453221</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>34.370076037775853</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>34.650754116555888</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>34.907041471334665</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>35.141057638557257</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>35.354737968469834</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>35.549849630768442</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>35.728006229368319</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35.890681147160279</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36.039219731117278</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36.17485041852396</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>36.298694896344863</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>36.411777377750731</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>36.515033072521405</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>36.609315921376727</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>36.695405658199661</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>36.774014258557223</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>36.845791827849666</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>36.911331977783597</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>36.971176735633513</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>37.025821026892011</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>37.075716768380879</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>37.121276605673806</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>37.162877325739672</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>37.200862973029679</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>37.235547694778624</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>37.267218339051638</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>37.296136827022451</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>37.322542319102403</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>37.346653192834388</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>37.368668848909259</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>37.388771360240639</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>37.407126977736404</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>37.423887505219582</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>37.439191554869744</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>37.453165693567328</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>37.465925489621519</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>37.477576468538217</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>37.488214985732441</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>37.497929023402669</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>37.506798918157344</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>37.514898025411192</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>37.522293326045926</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>37.52904598035262</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>37.535211833836868</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>37.540841879069831</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>37.545982677404751</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>37.550676744046633</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>37.554962899659607</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>37.55887659141991</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>37.562450186169556</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>37.565713238095157</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>37.568692733145689</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>37.571413312210481</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>37.573897474903255</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>37.576165765637384</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>37.578236943531458</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>37.580128137550084</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>37.581854988163123</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>37.583431776694795</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>37.584871543432492</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>37.586186195471967</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>37.587386605190865</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>37.588482700165031</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>37.589483545271051</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8F83-4B75-B0D2-7AAA2B2EEA60}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10044,16 +10647,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17846,10 +18449,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95588423-1919-4188-9DF0-1F3766B91E31}">
-  <dimension ref="A1:D150"/>
+  <dimension ref="A1:G150"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17857,7 +18460,7 @@
     <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -17870,8 +18473,15 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1">
+        <f>1.1</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G1">
+        <v>37.6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -17883,11 +18493,15 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <f>B2/1000</f>
-        <v>1.0509999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <f>B2/1000 - 1.051</f>
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <f>$G$1*(1-EXP(-D2/$F$1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>43</v>
       </c>
@@ -17899,11 +18513,15 @@
         <v>2.15</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D66" si="1">B3/1000</f>
-        <v>1.151</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" ref="D3:D66" si="1">B3/1000 - 1.051</f>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E66" si="2">$G$1*(1-EXP(-D3/$F$1))</f>
+        <v>3.2674130677869373</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>125</v>
       </c>
@@ -17916,10 +18534,14 @@
       </c>
       <c r="D4">
         <f t="shared" si="1"/>
-        <v>1.2509999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="2"/>
+        <v>6.25089028037321</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>195</v>
       </c>
@@ -17932,10 +18554,14 @@
       </c>
       <c r="D5">
         <f t="shared" si="1"/>
-        <v>1.351</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="2"/>
+        <v>8.9751054601975486</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>254</v>
       </c>
@@ -17948,10 +18574,14 @@
       </c>
       <c r="D6">
         <f t="shared" si="1"/>
-        <v>1.4510000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.40000000000000013</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="2"/>
+        <v>11.46258829220216</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>306</v>
       </c>
@@ -17964,10 +18594,14 @@
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>1.5509999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="2"/>
+        <v>13.733910647845402</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>350</v>
       </c>
@@ -17980,10 +18614,14 @@
       </c>
       <c r="D8">
         <f t="shared" si="1"/>
-        <v>1.651</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="2"/>
+        <v>15.807856717691163</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>389</v>
       </c>
@@ -17996,10 +18634,14 @@
       </c>
       <c r="D9">
         <f t="shared" si="1"/>
-        <v>1.7509999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.7</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>17.701578359598106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>423</v>
       </c>
@@ -18012,10 +18654,14 @@
       </c>
       <c r="D10">
         <f t="shared" si="1"/>
-        <v>1.851</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.8</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="2"/>
+        <v>19.430736947262563</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>453</v>
       </c>
@@ -18028,10 +18674,14 @@
       </c>
       <c r="D11">
         <f t="shared" si="1"/>
-        <v>1.9510000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.90000000000000013</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="2"/>
+        <v>21.009632892224605</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>480</v>
       </c>
@@ -18044,10 +18694,14 @@
       </c>
       <c r="D12">
         <f t="shared" si="1"/>
-        <v>2.0510000000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="2"/>
+        <v>22.451323910504602</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>504</v>
       </c>
@@ -18060,10 +18714,14 @@
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
-        <v>2.1509999999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.0999999999999999</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="2"/>
+        <v>23.767733011953769</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>526</v>
       </c>
@@ -18076,10 +18734,14 @@
       </c>
       <c r="D14">
         <f t="shared" si="1"/>
-        <v>2.2509999999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.2</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="2"/>
+        <v>24.969747105407496</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>544</v>
       </c>
@@ -18092,10 +18754,14 @@
       </c>
       <c r="D15">
         <f t="shared" si="1"/>
-        <v>2.351</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.3</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="2"/>
+        <v>26.067307035121466</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>563</v>
       </c>
@@ -18108,10 +18774,14 @@
       </c>
       <c r="D16">
         <f t="shared" si="1"/>
-        <v>2.4510000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="2"/>
+        <v>27.069489793106001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>578</v>
       </c>
@@ -18124,10 +18794,14 @@
       </c>
       <c r="D17">
         <f t="shared" si="1"/>
-        <v>2.5510000000000002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.5000000000000002</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="2"/>
+        <v>27.984583587267416</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>592</v>
       </c>
@@ -18140,10 +18814,14 @@
       </c>
       <c r="D18">
         <f t="shared" si="1"/>
-        <v>2.6509999999999998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.5999999999999999</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="2"/>
+        <v>28.820156386181658</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>605</v>
       </c>
@@ -18156,10 +18834,14 @@
       </c>
       <c r="D19">
         <f t="shared" si="1"/>
-        <v>2.7509999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.7</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="2"/>
+        <v>29.583118507376224</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>617</v>
       </c>
@@ -18172,10 +18854,14 @@
       </c>
       <c r="D20">
         <f t="shared" si="1"/>
-        <v>2.851</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.8</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="2"/>
+        <v>30.279779766735217</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>628</v>
       </c>
@@ -18188,10 +18874,14 @@
       </c>
       <c r="D21">
         <f t="shared" si="1"/>
-        <v>2.9510000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.9000000000000001</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="2"/>
+        <v>30.915901661662019</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>637</v>
       </c>
@@ -18204,10 +18894,14 @@
       </c>
       <c r="D22">
         <f t="shared" si="1"/>
-        <v>3.0510000000000002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="2"/>
+        <v>31.49674501956251</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>647</v>
       </c>
@@ -18220,10 +18914,14 @@
       </c>
       <c r="D23">
         <f t="shared" si="1"/>
-        <v>3.1509999999999998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.0999999999999996</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="2"/>
+        <v>32.027113505709238</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>654</v>
       </c>
@@ -18236,10 +18934,14 @@
       </c>
       <c r="D24">
         <f t="shared" si="1"/>
-        <v>3.2509999999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="2"/>
+        <v>32.511393350303365</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>663</v>
       </c>
@@ -18252,10 +18954,14 @@
       </c>
       <c r="D25">
         <f t="shared" si="1"/>
-        <v>3.351</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="2"/>
+        <v>32.953589623283314</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>668</v>
       </c>
@@ -18268,10 +18974,14 @@
       </c>
       <c r="D26">
         <f t="shared" si="1"/>
-        <v>3.4510000000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="2"/>
+        <v>33.357359356878661</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>675</v>
       </c>
@@ -18284,10 +18994,14 @@
       </c>
       <c r="D27">
         <f t="shared" si="1"/>
-        <v>3.5510000000000002</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.5</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="2"/>
+        <v>33.726041789837666</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>681</v>
       </c>
@@ -18300,10 +19014,14 @@
       </c>
       <c r="D28">
         <f t="shared" si="1"/>
-        <v>3.6509999999999998</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.5999999999999996</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="2"/>
+        <v>34.062685983453221</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>687</v>
       </c>
@@ -18316,10 +19034,14 @@
       </c>
       <c r="D29">
         <f t="shared" si="1"/>
-        <v>3.7509999999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.7</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="2"/>
+        <v>34.370076037775853</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>691</v>
       </c>
@@ -18332,10 +19054,14 @@
       </c>
       <c r="D30">
         <f t="shared" si="1"/>
-        <v>3.851</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.8</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="2"/>
+        <v>34.650754116555888</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>695</v>
       </c>
@@ -18348,10 +19074,14 @@
       </c>
       <c r="D31">
         <f t="shared" si="1"/>
-        <v>3.9510000000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.9000000000000004</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="2"/>
+        <v>34.907041471334665</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>700</v>
       </c>
@@ -18364,10 +19094,14 @@
       </c>
       <c r="D32">
         <f t="shared" si="1"/>
-        <v>4.0510000000000002</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="2"/>
+        <v>35.141057638557257</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>704</v>
       </c>
@@ -18380,10 +19114,14 @@
       </c>
       <c r="D33">
         <f t="shared" si="1"/>
-        <v>4.1509999999999998</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.0999999999999996</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="2"/>
+        <v>35.354737968469834</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>707</v>
       </c>
@@ -18396,10 +19134,14 @@
       </c>
       <c r="D34">
         <f t="shared" si="1"/>
-        <v>4.2510000000000003</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.2</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="2"/>
+        <v>35.549849630768442</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>710</v>
       </c>
@@ -18412,10 +19154,14 @@
       </c>
       <c r="D35">
         <f t="shared" si="1"/>
-        <v>4.351</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.3</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="2"/>
+        <v>35.728006229368319</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>714</v>
       </c>
@@ -18428,10 +19174,14 @@
       </c>
       <c r="D36">
         <f t="shared" si="1"/>
-        <v>4.4509999999999996</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.3999999999999995</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="2"/>
+        <v>35.890681147160279</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>716</v>
       </c>
@@ -18444,10 +19194,14 @@
       </c>
       <c r="D37">
         <f t="shared" si="1"/>
-        <v>4.5510000000000002</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.5</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="2"/>
+        <v>36.039219731117278</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>719</v>
       </c>
@@ -18460,10 +19214,14 @@
       </c>
       <c r="D38">
         <f t="shared" si="1"/>
-        <v>4.6509999999999998</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.5999999999999996</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="2"/>
+        <v>36.17485041852396</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>722</v>
       </c>
@@ -18476,10 +19234,14 @@
       </c>
       <c r="D39">
         <f t="shared" si="1"/>
-        <v>4.7510000000000003</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.7</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="2"/>
+        <v>36.298694896344863</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>723</v>
       </c>
@@ -18492,10 +19254,14 @@
       </c>
       <c r="D40">
         <f t="shared" si="1"/>
-        <v>4.851</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.8</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="2"/>
+        <v>36.411777377750731</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>726</v>
       </c>
@@ -18508,10 +19274,14 @@
       </c>
       <c r="D41">
         <f t="shared" si="1"/>
-        <v>4.9509999999999996</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.8999999999999995</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="2"/>
+        <v>36.515033072521405</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>728</v>
       </c>
@@ -18524,10 +19294,14 @@
       </c>
       <c r="D42">
         <f t="shared" si="1"/>
-        <v>5.0510000000000002</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="2"/>
+        <v>36.609315921376727</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>729</v>
       </c>
@@ -18540,10 +19314,14 @@
       </c>
       <c r="D43">
         <f t="shared" si="1"/>
-        <v>5.1509999999999998</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="2"/>
+        <v>36.695405658199661</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>731</v>
       </c>
@@ -18556,10 +19334,14 @@
       </c>
       <c r="D44">
         <f t="shared" si="1"/>
-        <v>5.2510000000000003</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4.2</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="2"/>
+        <v>36.774014258557223</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>733</v>
       </c>
@@ -18572,10 +19354,14 @@
       </c>
       <c r="D45">
         <f t="shared" si="1"/>
-        <v>5.351</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4.3</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="2"/>
+        <v>36.845791827849666</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>734</v>
       </c>
@@ -18588,10 +19374,14 @@
       </c>
       <c r="D46">
         <f t="shared" si="1"/>
-        <v>5.4509999999999996</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4.3999999999999995</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="2"/>
+        <v>36.911331977783597</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>735</v>
       </c>
@@ -18604,10 +19394,14 @@
       </c>
       <c r="D47">
         <f t="shared" si="1"/>
-        <v>5.5510000000000002</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4.5</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="2"/>
+        <v>36.971176735633513</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>737</v>
       </c>
@@ -18620,10 +19414,14 @@
       </c>
       <c r="D48">
         <f t="shared" si="1"/>
-        <v>5.6509999999999998</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="2"/>
+        <v>37.025821026892011</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>738</v>
       </c>
@@ -18636,10 +19434,14 @@
       </c>
       <c r="D49">
         <f t="shared" si="1"/>
-        <v>5.7510000000000003</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4.7</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="2"/>
+        <v>37.075716768380879</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>739</v>
       </c>
@@ -18652,10 +19454,14 @@
       </c>
       <c r="D50">
         <f t="shared" si="1"/>
-        <v>5.851</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4.8</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="2"/>
+        <v>37.121276605673806</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>740</v>
       </c>
@@ -18668,10 +19474,14 @@
       </c>
       <c r="D51">
         <f t="shared" si="1"/>
-        <v>5.9509999999999996</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4.8999999999999995</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="2"/>
+        <v>37.162877325739672</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>740</v>
       </c>
@@ -18684,10 +19494,14 @@
       </c>
       <c r="D52">
         <f t="shared" si="1"/>
-        <v>6.0510000000000002</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="2"/>
+        <v>37.200862973029679</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>742</v>
       </c>
@@ -18700,10 +19514,14 @@
       </c>
       <c r="D53">
         <f t="shared" si="1"/>
-        <v>6.1509999999999998</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="2"/>
+        <v>37.235547694778624</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>743</v>
       </c>
@@ -18716,10 +19534,14 @@
       </c>
       <c r="D54">
         <f t="shared" si="1"/>
-        <v>6.2510000000000003</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5.2</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="2"/>
+        <v>37.267218339051638</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>743</v>
       </c>
@@ -18732,10 +19554,14 @@
       </c>
       <c r="D55">
         <f t="shared" si="1"/>
-        <v>6.351</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5.3</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="2"/>
+        <v>37.296136827022451</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>744</v>
       </c>
@@ -18748,10 +19574,14 @@
       </c>
       <c r="D56">
         <f t="shared" si="1"/>
-        <v>6.4509999999999996</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5.3999999999999995</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="2"/>
+        <v>37.322542319102403</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>745</v>
       </c>
@@ -18764,10 +19594,14 @@
       </c>
       <c r="D57">
         <f t="shared" si="1"/>
-        <v>6.5510000000000002</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5.5</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="2"/>
+        <v>37.346653192834388</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>745</v>
       </c>
@@ -18780,10 +19614,14 @@
       </c>
       <c r="D58">
         <f t="shared" si="1"/>
-        <v>6.6509999999999998</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5.6</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="2"/>
+        <v>37.368668848909259</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>746</v>
       </c>
@@ -18796,10 +19634,14 @@
       </c>
       <c r="D59">
         <f t="shared" si="1"/>
-        <v>6.7510000000000003</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5.7</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="2"/>
+        <v>37.388771360240639</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>746</v>
       </c>
@@ -18812,10 +19654,14 @@
       </c>
       <c r="D60">
         <f t="shared" si="1"/>
-        <v>6.851</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5.8</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="2"/>
+        <v>37.407126977736404</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>747</v>
       </c>
@@ -18828,10 +19674,14 @@
       </c>
       <c r="D61">
         <f t="shared" si="1"/>
-        <v>6.9509999999999996</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5.8999999999999995</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="2"/>
+        <v>37.423887505219582</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>747</v>
       </c>
@@ -18844,10 +19694,14 @@
       </c>
       <c r="D62">
         <f t="shared" si="1"/>
-        <v>7.0510000000000002</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="2"/>
+        <v>37.439191554869744</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>748</v>
       </c>
@@ -18860,10 +19714,14 @@
       </c>
       <c r="D63">
         <f t="shared" si="1"/>
-        <v>7.1509999999999998</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6.1</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="2"/>
+        <v>37.453165693567328</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>748</v>
       </c>
@@ -18876,10 +19734,14 @@
       </c>
       <c r="D64">
         <f t="shared" si="1"/>
-        <v>7.2510000000000003</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6.2</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="2"/>
+        <v>37.465925489621519</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>749</v>
       </c>
@@ -18892,10 +19754,14 @@
       </c>
       <c r="D65">
         <f t="shared" si="1"/>
-        <v>7.351</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6.3</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="2"/>
+        <v>37.477576468538217</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>748</v>
       </c>
@@ -18908,10 +19774,14 @@
       </c>
       <c r="D66">
         <f t="shared" si="1"/>
-        <v>7.4509999999999996</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6.3999999999999995</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="2"/>
+        <v>37.488214985732441</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>749</v>
       </c>
@@ -18919,15 +19789,19 @@
         <v>7551</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67:C130" si="2">A67/200/0.1</f>
+        <f t="shared" ref="C67:C130" si="3">A67/200/0.1</f>
         <v>37.449999999999996</v>
       </c>
       <c r="D67">
-        <f t="shared" ref="D67:D130" si="3">B67/1000</f>
-        <v>7.5510000000000002</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" ref="D67:D130" si="4">B67/1000 - 1.051</f>
+        <v>6.5</v>
+      </c>
+      <c r="E67">
+        <f t="shared" ref="E67:E92" si="5">$G$1*(1-EXP(-D67/$F$1))</f>
+        <v>37.497929023402669</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>750</v>
       </c>
@@ -18935,15 +19809,19 @@
         <v>7651</v>
       </c>
       <c r="C68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37.5</v>
       </c>
       <c r="D68">
-        <f t="shared" si="3"/>
-        <v>7.6509999999999998</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>6.6</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="5"/>
+        <v>37.506798918157344</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>749</v>
       </c>
@@ -18951,15 +19829,19 @@
         <v>7751</v>
       </c>
       <c r="C69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37.449999999999996</v>
       </c>
       <c r="D69">
-        <f t="shared" si="3"/>
-        <v>7.7510000000000003</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>6.7</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="5"/>
+        <v>37.514898025411192</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>750</v>
       </c>
@@ -18967,15 +19849,19 @@
         <v>7851</v>
       </c>
       <c r="C70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37.5</v>
       </c>
       <c r="D70">
-        <f t="shared" si="3"/>
-        <v>7.851</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>6.8</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="5"/>
+        <v>37.522293326045926</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>750</v>
       </c>
@@ -18983,15 +19869,19 @@
         <v>7951</v>
       </c>
       <c r="C71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37.5</v>
       </c>
       <c r="D71">
-        <f t="shared" si="3"/>
-        <v>7.9509999999999996</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>6.8999999999999995</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="5"/>
+        <v>37.52904598035262</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>750</v>
       </c>
@@ -18999,15 +19889,19 @@
         <v>8051</v>
       </c>
       <c r="C72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37.5</v>
       </c>
       <c r="D72">
-        <f t="shared" si="3"/>
-        <v>8.0510000000000002</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="5"/>
+        <v>37.535211833836868</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>751</v>
       </c>
@@ -19015,15 +19909,19 @@
         <v>8151</v>
       </c>
       <c r="C73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37.549999999999997</v>
       </c>
       <c r="D73">
-        <f t="shared" si="3"/>
-        <v>8.1509999999999998</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>7.1</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="5"/>
+        <v>37.540841879069831</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>750</v>
       </c>
@@ -19031,15 +19929,19 @@
         <v>8251</v>
       </c>
       <c r="C74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37.5</v>
       </c>
       <c r="D74">
-        <f t="shared" si="3"/>
-        <v>8.2509999999999994</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="5"/>
+        <v>37.545982677404751</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>751</v>
       </c>
@@ -19047,15 +19949,19 @@
         <v>8351</v>
       </c>
       <c r="C75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37.549999999999997</v>
       </c>
       <c r="D75">
-        <f t="shared" si="3"/>
-        <v>8.3510000000000009</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>7.3000000000000007</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="5"/>
+        <v>37.550676744046633</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>751</v>
       </c>
@@ -19063,15 +19969,19 @@
         <v>8451</v>
       </c>
       <c r="C76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37.549999999999997</v>
       </c>
       <c r="D76">
-        <f t="shared" si="3"/>
-        <v>8.4510000000000005</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>7.4</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="5"/>
+        <v>37.554962899659607</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>751</v>
       </c>
@@ -19079,15 +19989,19 @@
         <v>8551</v>
       </c>
       <c r="C77">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37.549999999999997</v>
       </c>
       <c r="D77">
-        <f t="shared" si="3"/>
-        <v>8.5510000000000002</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>7.5</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="5"/>
+        <v>37.55887659141991</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>751</v>
       </c>
@@ -19095,15 +20009,19 @@
         <v>8651</v>
       </c>
       <c r="C78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37.549999999999997</v>
       </c>
       <c r="D78">
-        <f t="shared" si="3"/>
-        <v>8.6509999999999998</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>7.6</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="5"/>
+        <v>37.562450186169556</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>751</v>
       </c>
@@ -19111,15 +20029,19 @@
         <v>8751</v>
       </c>
       <c r="C79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37.549999999999997</v>
       </c>
       <c r="D79">
-        <f t="shared" si="3"/>
-        <v>8.7509999999999994</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>7.6999999999999993</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="5"/>
+        <v>37.565713238095157</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>751</v>
       </c>
@@ -19127,15 +20049,19 @@
         <v>8851</v>
       </c>
       <c r="C80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37.549999999999997</v>
       </c>
       <c r="D80">
-        <f t="shared" si="3"/>
-        <v>8.8510000000000009</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>7.8000000000000007</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="5"/>
+        <v>37.568692733145689</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>752</v>
       </c>
@@ -19143,15 +20069,19 @@
         <v>8951</v>
       </c>
       <c r="C81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37.599999999999994</v>
       </c>
       <c r="D81">
-        <f t="shared" si="3"/>
-        <v>8.9510000000000005</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>7.9</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="5"/>
+        <v>37.571413312210481</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>752</v>
       </c>
@@ -19159,15 +20089,19 @@
         <v>9051</v>
       </c>
       <c r="C82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37.599999999999994</v>
       </c>
       <c r="D82">
-        <f t="shared" si="3"/>
-        <v>9.0510000000000002</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="5"/>
+        <v>37.573897474903255</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>751</v>
       </c>
@@ -19175,15 +20109,19 @@
         <v>9151</v>
       </c>
       <c r="C83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37.549999999999997</v>
       </c>
       <c r="D83">
-        <f t="shared" si="3"/>
-        <v>9.1509999999999998</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>8.1</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="5"/>
+        <v>37.576165765637384</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>752</v>
       </c>
@@ -19191,15 +20129,19 @@
         <v>9251</v>
       </c>
       <c r="C84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37.599999999999994</v>
       </c>
       <c r="D84">
-        <f t="shared" si="3"/>
-        <v>9.2509999999999994</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="5"/>
+        <v>37.578236943531458</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>751</v>
       </c>
@@ -19207,15 +20149,19 @@
         <v>9351</v>
       </c>
       <c r="C85">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37.549999999999997</v>
       </c>
       <c r="D85">
-        <f t="shared" si="3"/>
-        <v>9.3510000000000009</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="5"/>
+        <v>37.580128137550084</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>752</v>
       </c>
@@ -19223,15 +20169,19 @@
         <v>9451</v>
       </c>
       <c r="C86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37.599999999999994</v>
       </c>
       <c r="D86">
-        <f t="shared" si="3"/>
-        <v>9.4510000000000005</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>8.4</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="5"/>
+        <v>37.581854988163123</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>752</v>
       </c>
@@ -19239,15 +20189,19 @@
         <v>9551</v>
       </c>
       <c r="C87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37.599999999999994</v>
       </c>
       <c r="D87">
-        <f t="shared" si="3"/>
-        <v>9.5510000000000002</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>8.5</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="5"/>
+        <v>37.583431776694795</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>752</v>
       </c>
@@ -19255,15 +20209,19 @@
         <v>9651</v>
       </c>
       <c r="C88">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37.599999999999994</v>
       </c>
       <c r="D88">
-        <f t="shared" si="3"/>
-        <v>9.6509999999999998</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>8.6</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="5"/>
+        <v>37.584871543432492</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>752</v>
       </c>
@@ -19271,15 +20229,19 @@
         <v>9751</v>
       </c>
       <c r="C89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37.599999999999994</v>
       </c>
       <c r="D89">
-        <f t="shared" si="3"/>
-        <v>9.7509999999999994</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="5"/>
+        <v>37.586186195471967</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>752</v>
       </c>
@@ -19287,15 +20249,19 @@
         <v>9851</v>
       </c>
       <c r="C90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37.599999999999994</v>
       </c>
       <c r="D90">
-        <f t="shared" si="3"/>
-        <v>9.8510000000000009</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="5"/>
+        <v>37.587386605190865</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>752</v>
       </c>
@@ -19303,15 +20269,19 @@
         <v>9951</v>
       </c>
       <c r="C91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37.599999999999994</v>
       </c>
       <c r="D91">
-        <f t="shared" si="3"/>
-        <v>9.9510000000000005</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>8.9</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="5"/>
+        <v>37.588482700165031</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>752</v>
       </c>
@@ -19319,15 +20289,19 @@
         <v>10051</v>
       </c>
       <c r="C92">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37.599999999999994</v>
       </c>
       <c r="D92">
-        <f t="shared" si="3"/>
-        <v>10.051</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="5"/>
+        <v>37.589483545271051</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>735</v>
       </c>
@@ -19335,15 +20309,15 @@
         <v>10151</v>
       </c>
       <c r="C93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>36.749999999999993</v>
       </c>
       <c r="D93">
-        <f t="shared" si="3"/>
-        <v>10.151</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>701</v>
       </c>
@@ -19351,15 +20325,15 @@
         <v>10251</v>
       </c>
       <c r="C94">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>35.049999999999997</v>
       </c>
       <c r="D94">
-        <f t="shared" si="3"/>
-        <v>10.250999999999999</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>666</v>
       </c>
@@ -19367,15 +20341,15 @@
         <v>10351</v>
       </c>
       <c r="C95">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>33.299999999999997</v>
       </c>
       <c r="D95">
-        <f t="shared" si="3"/>
-        <v>10.351000000000001</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>631</v>
       </c>
@@ -19383,12 +20357,12 @@
         <v>10451</v>
       </c>
       <c r="C96">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>31.549999999999997</v>
       </c>
       <c r="D96">
-        <f t="shared" si="3"/>
-        <v>10.451000000000001</v>
+        <f t="shared" si="4"/>
+        <v>9.4</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -19399,12 +20373,12 @@
         <v>10551</v>
       </c>
       <c r="C97">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>29.75</v>
       </c>
       <c r="D97">
-        <f t="shared" si="3"/>
-        <v>10.551</v>
+        <f t="shared" si="4"/>
+        <v>9.5</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -19415,12 +20389,12 @@
         <v>10651</v>
       </c>
       <c r="C98">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>27.85</v>
       </c>
       <c r="D98">
-        <f t="shared" si="3"/>
-        <v>10.651</v>
+        <f t="shared" si="4"/>
+        <v>9.6</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -19431,12 +20405,12 @@
         <v>10751</v>
       </c>
       <c r="C99">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="D99">
-        <f t="shared" si="3"/>
-        <v>10.750999999999999</v>
+        <f t="shared" si="4"/>
+        <v>9.6999999999999993</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -19447,12 +20421,12 @@
         <v>10851</v>
       </c>
       <c r="C100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24.1</v>
       </c>
       <c r="D100">
-        <f t="shared" si="3"/>
-        <v>10.851000000000001</v>
+        <f t="shared" si="4"/>
+        <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -19463,12 +20437,12 @@
         <v>10951</v>
       </c>
       <c r="C101">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>22.15</v>
       </c>
       <c r="D101">
-        <f t="shared" si="3"/>
-        <v>10.951000000000001</v>
+        <f t="shared" si="4"/>
+        <v>9.9</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -19479,12 +20453,12 @@
         <v>11051</v>
       </c>
       <c r="C102">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20.149999999999999</v>
       </c>
       <c r="D102">
-        <f t="shared" si="3"/>
-        <v>11.051</v>
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -19495,12 +20469,12 @@
         <v>11151</v>
       </c>
       <c r="C103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18.25</v>
       </c>
       <c r="D103">
-        <f t="shared" si="3"/>
-        <v>11.151</v>
+        <f t="shared" si="4"/>
+        <v>10.1</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -19511,12 +20485,12 @@
         <v>11251</v>
       </c>
       <c r="C104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16.25</v>
       </c>
       <c r="D104">
-        <f t="shared" si="3"/>
-        <v>11.250999999999999</v>
+        <f t="shared" si="4"/>
+        <v>10.199999999999999</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -19527,12 +20501,12 @@
         <v>11351</v>
       </c>
       <c r="C105">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14.399999999999999</v>
       </c>
       <c r="D105">
-        <f t="shared" si="3"/>
-        <v>11.351000000000001</v>
+        <f t="shared" si="4"/>
+        <v>10.3</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -19543,12 +20517,12 @@
         <v>11451</v>
       </c>
       <c r="C106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12.549999999999999</v>
       </c>
       <c r="D106">
-        <f t="shared" si="3"/>
-        <v>11.451000000000001</v>
+        <f t="shared" si="4"/>
+        <v>10.4</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -19559,12 +20533,12 @@
         <v>11551</v>
       </c>
       <c r="C107">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10.8</v>
       </c>
       <c r="D107">
-        <f t="shared" si="3"/>
-        <v>11.551</v>
+        <f t="shared" si="4"/>
+        <v>10.5</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -19575,12 +20549,12 @@
         <v>11651</v>
       </c>
       <c r="C108">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.25</v>
       </c>
       <c r="D108">
-        <f t="shared" si="3"/>
-        <v>11.651</v>
+        <f t="shared" si="4"/>
+        <v>10.6</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -19591,12 +20565,12 @@
         <v>11751</v>
       </c>
       <c r="C109">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.75</v>
       </c>
       <c r="D109">
-        <f t="shared" si="3"/>
-        <v>11.750999999999999</v>
+        <f t="shared" si="4"/>
+        <v>10.7</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -19607,12 +20581,12 @@
         <v>11851</v>
       </c>
       <c r="C110">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.5</v>
       </c>
       <c r="D110">
-        <f t="shared" si="3"/>
-        <v>11.851000000000001</v>
+        <f t="shared" si="4"/>
+        <v>10.8</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -19623,12 +20597,12 @@
         <v>11951</v>
       </c>
       <c r="C111">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.4</v>
       </c>
       <c r="D111">
-        <f t="shared" si="3"/>
-        <v>11.951000000000001</v>
+        <f t="shared" si="4"/>
+        <v>10.9</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -19639,12 +20613,12 @@
         <v>12051</v>
       </c>
       <c r="C112">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.3999999999999995</v>
       </c>
       <c r="D112">
-        <f t="shared" si="3"/>
-        <v>12.051</v>
+        <f t="shared" si="4"/>
+        <v>11</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -19655,12 +20629,12 @@
         <v>12151</v>
       </c>
       <c r="C113">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.5999999999999996</v>
       </c>
       <c r="D113">
-        <f t="shared" si="3"/>
-        <v>12.151</v>
+        <f t="shared" si="4"/>
+        <v>11.1</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -19671,12 +20645,12 @@
         <v>12251</v>
       </c>
       <c r="C114">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.9499999999999997</v>
       </c>
       <c r="D114">
-        <f t="shared" si="3"/>
-        <v>12.250999999999999</v>
+        <f t="shared" si="4"/>
+        <v>11.2</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -19687,12 +20661,12 @@
         <v>12351</v>
       </c>
       <c r="C115">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.3499999999999996</v>
       </c>
       <c r="D115">
-        <f t="shared" si="3"/>
-        <v>12.351000000000001</v>
+        <f t="shared" si="4"/>
+        <v>11.3</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -19703,12 +20677,12 @@
         <v>12451</v>
       </c>
       <c r="C116">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.8499999999999999</v>
       </c>
       <c r="D116">
-        <f t="shared" si="3"/>
-        <v>12.451000000000001</v>
+        <f t="shared" si="4"/>
+        <v>11.4</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -19719,12 +20693,12 @@
         <v>12551</v>
       </c>
       <c r="C117">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4999999999999998</v>
       </c>
       <c r="D117">
-        <f t="shared" si="3"/>
-        <v>12.551</v>
+        <f t="shared" si="4"/>
+        <v>11.5</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -19735,12 +20709,12 @@
         <v>12651</v>
       </c>
       <c r="C118">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1499999999999999</v>
       </c>
       <c r="D118">
-        <f t="shared" si="3"/>
-        <v>12.651</v>
+        <f t="shared" si="4"/>
+        <v>11.6</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -19751,12 +20725,12 @@
         <v>12751</v>
       </c>
       <c r="C119">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.89999999999999991</v>
       </c>
       <c r="D119">
-        <f t="shared" si="3"/>
-        <v>12.750999999999999</v>
+        <f t="shared" si="4"/>
+        <v>11.7</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -19767,12 +20741,12 @@
         <v>12851</v>
       </c>
       <c r="C120">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.70000000000000007</v>
       </c>
       <c r="D120">
-        <f t="shared" si="3"/>
-        <v>12.851000000000001</v>
+        <f t="shared" si="4"/>
+        <v>11.8</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -19783,12 +20757,12 @@
         <v>12951</v>
       </c>
       <c r="C121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.44999999999999996</v>
       </c>
       <c r="D121">
-        <f t="shared" si="3"/>
-        <v>12.951000000000001</v>
+        <f t="shared" si="4"/>
+        <v>11.9</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -19799,12 +20773,12 @@
         <v>13051</v>
       </c>
       <c r="C122">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.35000000000000003</v>
       </c>
       <c r="D122">
-        <f t="shared" si="3"/>
-        <v>13.051</v>
+        <f t="shared" si="4"/>
+        <v>12</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -19815,12 +20789,12 @@
         <v>13151</v>
       </c>
       <c r="C123">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.25</v>
       </c>
       <c r="D123">
-        <f t="shared" si="3"/>
-        <v>13.151</v>
+        <f t="shared" si="4"/>
+        <v>12.1</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -19831,12 +20805,12 @@
         <v>13251</v>
       </c>
       <c r="C124">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999992E-2</v>
       </c>
       <c r="D124">
-        <f t="shared" si="3"/>
-        <v>13.250999999999999</v>
+        <f t="shared" si="4"/>
+        <v>12.2</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -19847,12 +20821,12 @@
         <v>13351</v>
       </c>
       <c r="C125">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9999999999999996E-2</v>
       </c>
       <c r="D125">
-        <f t="shared" si="3"/>
-        <v>13.351000000000001</v>
+        <f t="shared" si="4"/>
+        <v>12.3</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -19863,12 +20837,12 @@
         <v>13451</v>
       </c>
       <c r="C126">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-4.9999999999999996E-2</v>
       </c>
       <c r="D126">
-        <f t="shared" si="3"/>
-        <v>13.451000000000001</v>
+        <f t="shared" si="4"/>
+        <v>12.4</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -19879,12 +20853,12 @@
         <v>13551</v>
       </c>
       <c r="C127">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D127">
-        <f t="shared" si="3"/>
-        <v>13.551</v>
+        <f t="shared" si="4"/>
+        <v>12.5</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -19895,12 +20869,12 @@
         <v>13651</v>
       </c>
       <c r="C128">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D128">
-        <f t="shared" si="3"/>
-        <v>13.651</v>
+        <f t="shared" si="4"/>
+        <v>12.6</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -19911,12 +20885,12 @@
         <v>13751</v>
       </c>
       <c r="C129">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D129">
-        <f t="shared" si="3"/>
-        <v>13.750999999999999</v>
+        <f t="shared" si="4"/>
+        <v>12.7</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -19927,12 +20901,12 @@
         <v>13851</v>
       </c>
       <c r="C130">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D130">
-        <f t="shared" si="3"/>
-        <v>13.851000000000001</v>
+        <f t="shared" si="4"/>
+        <v>12.8</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -19943,12 +20917,12 @@
         <v>13951</v>
       </c>
       <c r="C131">
-        <f t="shared" ref="C131:C194" si="4">A131/200/0.1</f>
+        <f t="shared" ref="C131:C150" si="6">A131/200/0.1</f>
         <v>0</v>
       </c>
       <c r="D131">
-        <f t="shared" ref="D131:D194" si="5">B131/1000</f>
-        <v>13.951000000000001</v>
+        <f t="shared" ref="D131:D150" si="7">B131/1000 - 1.051</f>
+        <v>12.9</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -19959,12 +20933,12 @@
         <v>14051</v>
       </c>
       <c r="C132">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="D132">
-        <f t="shared" si="5"/>
-        <v>14.051</v>
+        <f t="shared" si="7"/>
+        <v>13</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -19975,12 +20949,12 @@
         <v>14151</v>
       </c>
       <c r="C133">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="D133">
-        <f t="shared" si="5"/>
-        <v>14.151</v>
+        <f t="shared" si="7"/>
+        <v>13.1</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -19991,12 +20965,12 @@
         <v>14251</v>
       </c>
       <c r="C134">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="D134">
-        <f t="shared" si="5"/>
-        <v>14.250999999999999</v>
+        <f t="shared" si="7"/>
+        <v>13.2</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -20007,12 +20981,12 @@
         <v>14351</v>
       </c>
       <c r="C135">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="D135">
-        <f t="shared" si="5"/>
-        <v>14.351000000000001</v>
+        <f t="shared" si="7"/>
+        <v>13.3</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -20023,12 +20997,12 @@
         <v>14451</v>
       </c>
       <c r="C136">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="D136">
-        <f t="shared" si="5"/>
-        <v>14.451000000000001</v>
+        <f t="shared" si="7"/>
+        <v>13.4</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -20039,12 +21013,12 @@
         <v>14551</v>
       </c>
       <c r="C137">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="D137">
-        <f t="shared" si="5"/>
-        <v>14.551</v>
+        <f t="shared" si="7"/>
+        <v>13.5</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -20055,12 +21029,12 @@
         <v>14651</v>
       </c>
       <c r="C138">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="D138">
-        <f t="shared" si="5"/>
-        <v>14.651</v>
+        <f t="shared" si="7"/>
+        <v>13.6</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -20071,12 +21045,12 @@
         <v>14751</v>
       </c>
       <c r="C139">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="D139">
-        <f t="shared" si="5"/>
-        <v>14.750999999999999</v>
+        <f t="shared" si="7"/>
+        <v>13.7</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -20087,12 +21061,12 @@
         <v>14851</v>
       </c>
       <c r="C140">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="D140">
-        <f t="shared" si="5"/>
-        <v>14.851000000000001</v>
+        <f t="shared" si="7"/>
+        <v>13.8</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -20103,12 +21077,12 @@
         <v>14951</v>
       </c>
       <c r="C141">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="D141">
-        <f t="shared" si="5"/>
-        <v>14.951000000000001</v>
+        <f t="shared" si="7"/>
+        <v>13.9</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -20119,12 +21093,12 @@
         <v>15051</v>
       </c>
       <c r="C142">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="D142">
-        <f t="shared" si="5"/>
-        <v>15.051</v>
+        <f t="shared" si="7"/>
+        <v>14</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -20135,12 +21109,12 @@
         <v>15151</v>
       </c>
       <c r="C143">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="D143">
-        <f t="shared" si="5"/>
-        <v>15.151</v>
+        <f t="shared" si="7"/>
+        <v>14.1</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -20151,12 +21125,12 @@
         <v>15251</v>
       </c>
       <c r="C144">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="D144">
-        <f t="shared" si="5"/>
-        <v>15.250999999999999</v>
+        <f t="shared" si="7"/>
+        <v>14.2</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -20167,12 +21141,12 @@
         <v>15351</v>
       </c>
       <c r="C145">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="D145">
-        <f t="shared" si="5"/>
-        <v>15.351000000000001</v>
+        <f t="shared" si="7"/>
+        <v>14.3</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -20183,12 +21157,12 @@
         <v>15451</v>
       </c>
       <c r="C146">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="D146">
-        <f t="shared" si="5"/>
-        <v>15.451000000000001</v>
+        <f t="shared" si="7"/>
+        <v>14.4</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -20199,12 +21173,12 @@
         <v>15551</v>
       </c>
       <c r="C147">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="D147">
-        <f t="shared" si="5"/>
-        <v>15.551</v>
+        <f t="shared" si="7"/>
+        <v>14.5</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -20215,12 +21189,12 @@
         <v>15651</v>
       </c>
       <c r="C148">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="D148">
-        <f t="shared" si="5"/>
-        <v>15.651</v>
+        <f t="shared" si="7"/>
+        <v>14.6</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -20231,12 +21205,12 @@
         <v>15751</v>
       </c>
       <c r="C149">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="D149">
-        <f t="shared" si="5"/>
-        <v>15.750999999999999</v>
+        <f t="shared" si="7"/>
+        <v>14.7</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -20247,12 +21221,12 @@
         <v>15851</v>
       </c>
       <c r="C150">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="D150">
-        <f t="shared" si="5"/>
-        <v>15.851000000000001</v>
+        <f t="shared" si="7"/>
+        <v>14.8</v>
       </c>
     </row>
   </sheetData>
@@ -20265,7 +21239,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F934D63D-5EA6-49FC-924F-91CDEED72800}">
   <dimension ref="A1:D184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
+    <sheetView topLeftCell="A141" workbookViewId="0">
       <selection activeCell="X164" sqref="X164"/>
     </sheetView>
   </sheetViews>

--- a/MotorData.xlsx
+++ b/MotorData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark\Documents\GitHub\Cube\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E475622F-A623-40B2-A507-490DFFFA9955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D72A773-6C21-47CB-972A-C66ED4F3B029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{EC7B1352-56D2-4F86-A349-4A1459A01683}"/>
+    <workbookView minimized="1" xWindow="6600" yWindow="1965" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{EC7B1352-56D2-4F86-A349-4A1459A01683}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4643,274 +4643,274 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.2674130677869373</c:v>
+                  <c:v>3.3391243888651196</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.25089028037321</c:v>
+                  <c:v>6.3817128286793281</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.9751054601975486</c:v>
+                  <c:v>9.1540996391142233</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.46258829220216</c:v>
+                  <c:v>11.680280481089243</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.733910647845402</c:v>
+                  <c:v>13.982120044869507</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15.807856717691163</c:v>
+                  <c:v>16.079541294110591</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17.701578359598106</c:v>
+                  <c:v>17.990697903802079</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19.430736947262563</c:v>
+                  <c:v>19.732131384600969</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>21.009632892224605</c:v>
+                  <c:v>21.318914253503007</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>22.451323910504602</c:v>
+                  <c:v>22.764780490027803</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>23.767733011953769</c:v>
+                  <c:v>24.082244407046836</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>24.969747105407496</c:v>
+                  <c:v>25.282708965109276</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>26.067307035121466</c:v>
+                  <c:v>26.376564467751649</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>27.069489793106001</c:v>
+                  <c:v>27.37327849202255</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>27.984583587267416</c:v>
+                  <c:v>28.281477832592198</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>28.820156386181658</c:v>
+                  <c:v>29.109023168692506</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>29.583118507376224</c:v>
+                  <c:v>29.863077100147493</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>30.279779766735217</c:v>
+                  <c:v>30.550166141362034</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>30.915901661662019</c:v>
+                  <c:v>31.176237209841421</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>31.49674501956251</c:v>
+                  <c:v>31.746709098163304</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>32.027113505709238</c:v>
+                  <c:v>32.266519374903865</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>32.511393350303365</c:v>
+                  <c:v>32.740167120457009</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>32.953589623283314</c:v>
+                  <c:v>33.171751867634946</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>33.357359356878661</c:v>
+                  <c:v>33.565009084090441</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>33.726041789837666</c:v>
+                  <c:v>33.92334250366924</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>34.062685983453221</c:v>
+                  <c:v>34.249853586528324</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>34.370076037775853</c:v>
+                  <c:v>34.547368363004189</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>34.650754116555888</c:v>
+                  <c:v>34.818461893571047</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>34.907041471334665</c:v>
+                  <c:v>35.065480556595908</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>35.141057638557257</c:v>
+                  <c:v>35.290562356795995</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>35.354737968469834</c:v>
+                  <c:v>35.495655430173279</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>35.549849630768442</c:v>
+                  <c:v>35.682534905590408</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>35.728006229368319</c:v>
+                  <c:v>35.852818268929255</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>35.890681147160279</c:v>
+                  <c:v>36.007979362812179</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>36.039219731117278</c:v>
+                  <c:v>36.149361143057142</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>36.17485041852396</c:v>
+                  <c:v>36.278187302276642</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>36.298694896344863</c:v>
+                  <c:v>36.395572861225567</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>36.411777377750731</c:v>
+                  <c:v>36.502533819568463</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>36.515033072521405</c:v>
+                  <c:v>36.59999594959595</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>36.609315921376727</c:v>
+                  <c:v>36.688802809002013</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>36.695405658199661</c:v>
+                  <c:v>36.769723042074538</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>36.774014258557223</c:v>
+                  <c:v>36.843457032492665</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>36.845791827849666</c:v>
+                  <c:v>36.910642965312562</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>36.911331977783597</c:v>
+                  <c:v>36.971862350609385</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>36.971176735633513</c:v>
+                  <c:v>37.027645056583978</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>37.025821026892011</c:v>
+                  <c:v>37.078473895696952</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>37.075716768380879</c:v>
+                  <c:v>37.124788803524297</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>37.121276605673806</c:v>
+                  <c:v>37.166990646503386</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>37.162877325739672</c:v>
+                  <c:v>37.205444691526452</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>37.200862973029679</c:v>
+                  <c:v>37.240483767411568</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>37.235547694778624</c:v>
+                  <c:v>37.272411145614463</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>37.267218339051638</c:v>
+                  <c:v>37.30150316511444</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>37.296136827022451</c:v>
+                  <c:v>37.328011624193309</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>37.322542319102403</c:v>
+                  <c:v>37.352165959808836</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>37.346653192834388</c:v>
+                  <c:v>37.374175233425682</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>37.368668848909259</c:v>
+                  <c:v>37.394229940491584</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>37.388771360240639</c:v>
+                  <c:v>37.412503659220384</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>37.407126977736404</c:v>
+                  <c:v>37.429154552952305</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>37.423887505219582</c:v>
+                  <c:v>37.444326739094954</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>37.439191554869744</c:v>
+                  <c:v>37.458151536493411</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>37.453165693567328</c:v>
+                  <c:v>37.470748602025807</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>37.465925489621519</c:v>
+                  <c:v>37.482226966261727</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>37.477576468538217</c:v>
+                  <c:v>37.492685977147524</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>37.488214985732441</c:v>
+                  <c:v>37.502216159886196</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>37.497929023402669</c:v>
+                  <c:v>37.510900000454299</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>37.506798918157344</c:v>
+                  <c:v>37.518812659537573</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>37.514898025411192</c:v>
+                  <c:v>37.526022623064307</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>37.522293326045926</c:v>
+                  <c:v>37.532592294967237</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>37.52904598035262</c:v>
+                  <c:v>37.538578537304268</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>37.535211833836868</c:v>
+                  <c:v>37.544033162412966</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>37.540841879069831</c:v>
+                  <c:v>37.549003381358567</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>37.545982677404751</c:v>
+                  <c:v>37.553532212556846</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>37.550676744046633</c:v>
+                  <c:v>37.557658854108652</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>37.554962899659607</c:v>
+                  <c:v>37.561419023068716</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>37.55887659141991</c:v>
+                  <c:v>37.564845264585138</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>37.562450186169556</c:v>
+                  <c:v>37.56796723358535</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>37.565713238095157</c:v>
+                  <c:v>37.570811951446466</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>37.568692733145689</c:v>
+                  <c:v>37.57340403987169</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>37.571413312210481</c:v>
+                  <c:v>37.575765933996948</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>37.573897474903255</c:v>
+                  <c:v>37.577918076572274</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>37.576165765637384</c:v>
+                  <c:v>37.579879094898615</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>37.578236943531458</c:v>
+                  <c:v>37.581665962051545</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>37.580128137550084</c:v>
+                  <c:v>37.583294143787185</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>37.581854988163123</c:v>
+                  <c:v>37.584777732402003</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>37.583431776694795</c:v>
+                  <c:v>37.586129568704933</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>37.584871543432492</c:v>
+                  <c:v>37.587361353157632</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>37.586186195471967</c:v>
+                  <c:v>37.5884837471447</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>37.587386605190865</c:v>
+                  <c:v>37.58950646525048</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>37.588482700165031</c:v>
+                  <c:v>37.590438359341107</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>37.589483545271051</c:v>
+                  <c:v>37.591287495179451</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18474,8 +18474,7 @@
         <v>2</v>
       </c>
       <c r="F1">
-        <f>1.1</f>
-        <v>1.1000000000000001</v>
+        <v>0.93</v>
       </c>
       <c r="G1">
         <v>37.6</v>
@@ -18497,7 +18496,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <f>$G$1*(1-EXP(-D2/$F$1))</f>
+        <f>$G$1*(1-EXP(-D2*$F$1))</f>
         <v>0</v>
       </c>
     </row>
@@ -18517,8 +18516,8 @@
         <v>0.10000000000000009</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E66" si="2">$G$1*(1-EXP(-D3/$F$1))</f>
-        <v>3.2674130677869373</v>
+        <f t="shared" ref="E3:E66" si="2">$G$1*(1-EXP(-D3*$F$1))</f>
+        <v>3.3391243888651196</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -18538,7 +18537,7 @@
       </c>
       <c r="E4">
         <f t="shared" si="2"/>
-        <v>6.25089028037321</v>
+        <v>6.3817128286793281</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -18558,7 +18557,7 @@
       </c>
       <c r="E5">
         <f t="shared" si="2"/>
-        <v>8.9751054601975486</v>
+        <v>9.1540996391142233</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -18578,7 +18577,7 @@
       </c>
       <c r="E6">
         <f t="shared" si="2"/>
-        <v>11.46258829220216</v>
+        <v>11.680280481089243</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -18598,7 +18597,7 @@
       </c>
       <c r="E7">
         <f t="shared" si="2"/>
-        <v>13.733910647845402</v>
+        <v>13.982120044869507</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -18618,7 +18617,7 @@
       </c>
       <c r="E8">
         <f t="shared" si="2"/>
-        <v>15.807856717691163</v>
+        <v>16.079541294110591</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -18638,7 +18637,7 @@
       </c>
       <c r="E9">
         <f t="shared" si="2"/>
-        <v>17.701578359598106</v>
+        <v>17.990697903802079</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -18658,7 +18657,7 @@
       </c>
       <c r="E10">
         <f t="shared" si="2"/>
-        <v>19.430736947262563</v>
+        <v>19.732131384600969</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -18678,7 +18677,7 @@
       </c>
       <c r="E11">
         <f t="shared" si="2"/>
-        <v>21.009632892224605</v>
+        <v>21.318914253503007</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -18698,7 +18697,7 @@
       </c>
       <c r="E12">
         <f t="shared" si="2"/>
-        <v>22.451323910504602</v>
+        <v>22.764780490027803</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -18718,7 +18717,7 @@
       </c>
       <c r="E13">
         <f t="shared" si="2"/>
-        <v>23.767733011953769</v>
+        <v>24.082244407046836</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -18738,7 +18737,7 @@
       </c>
       <c r="E14">
         <f t="shared" si="2"/>
-        <v>24.969747105407496</v>
+        <v>25.282708965109276</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -18758,7 +18757,7 @@
       </c>
       <c r="E15">
         <f t="shared" si="2"/>
-        <v>26.067307035121466</v>
+        <v>26.376564467751649</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -18778,7 +18777,7 @@
       </c>
       <c r="E16">
         <f t="shared" si="2"/>
-        <v>27.069489793106001</v>
+        <v>27.37327849202255</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -18798,7 +18797,7 @@
       </c>
       <c r="E17">
         <f t="shared" si="2"/>
-        <v>27.984583587267416</v>
+        <v>28.281477832592198</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -18818,7 +18817,7 @@
       </c>
       <c r="E18">
         <f t="shared" si="2"/>
-        <v>28.820156386181658</v>
+        <v>29.109023168692506</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -18838,7 +18837,7 @@
       </c>
       <c r="E19">
         <f t="shared" si="2"/>
-        <v>29.583118507376224</v>
+        <v>29.863077100147493</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -18858,7 +18857,7 @@
       </c>
       <c r="E20">
         <f t="shared" si="2"/>
-        <v>30.279779766735217</v>
+        <v>30.550166141362034</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -18878,7 +18877,7 @@
       </c>
       <c r="E21">
         <f t="shared" si="2"/>
-        <v>30.915901661662019</v>
+        <v>31.176237209841421</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -18898,7 +18897,7 @@
       </c>
       <c r="E22">
         <f t="shared" si="2"/>
-        <v>31.49674501956251</v>
+        <v>31.746709098163304</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -18918,7 +18917,7 @@
       </c>
       <c r="E23">
         <f t="shared" si="2"/>
-        <v>32.027113505709238</v>
+        <v>32.266519374903865</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -18938,7 +18937,7 @@
       </c>
       <c r="E24">
         <f t="shared" si="2"/>
-        <v>32.511393350303365</v>
+        <v>32.740167120457009</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -18958,7 +18957,7 @@
       </c>
       <c r="E25">
         <f t="shared" si="2"/>
-        <v>32.953589623283314</v>
+        <v>33.171751867634946</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -18978,7 +18977,7 @@
       </c>
       <c r="E26">
         <f t="shared" si="2"/>
-        <v>33.357359356878661</v>
+        <v>33.565009084090441</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -18998,7 +18997,7 @@
       </c>
       <c r="E27">
         <f t="shared" si="2"/>
-        <v>33.726041789837666</v>
+        <v>33.92334250366924</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -19018,7 +19017,7 @@
       </c>
       <c r="E28">
         <f t="shared" si="2"/>
-        <v>34.062685983453221</v>
+        <v>34.249853586528324</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -19038,7 +19037,7 @@
       </c>
       <c r="E29">
         <f t="shared" si="2"/>
-        <v>34.370076037775853</v>
+        <v>34.547368363004189</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -19058,7 +19057,7 @@
       </c>
       <c r="E30">
         <f t="shared" si="2"/>
-        <v>34.650754116555888</v>
+        <v>34.818461893571047</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -19078,7 +19077,7 @@
       </c>
       <c r="E31">
         <f t="shared" si="2"/>
-        <v>34.907041471334665</v>
+        <v>35.065480556595908</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -19098,7 +19097,7 @@
       </c>
       <c r="E32">
         <f t="shared" si="2"/>
-        <v>35.141057638557257</v>
+        <v>35.290562356795995</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -19118,7 +19117,7 @@
       </c>
       <c r="E33">
         <f t="shared" si="2"/>
-        <v>35.354737968469834</v>
+        <v>35.495655430173279</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -19138,7 +19137,7 @@
       </c>
       <c r="E34">
         <f t="shared" si="2"/>
-        <v>35.549849630768442</v>
+        <v>35.682534905590408</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -19158,7 +19157,7 @@
       </c>
       <c r="E35">
         <f t="shared" si="2"/>
-        <v>35.728006229368319</v>
+        <v>35.852818268929255</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -19178,7 +19177,7 @@
       </c>
       <c r="E36">
         <f t="shared" si="2"/>
-        <v>35.890681147160279</v>
+        <v>36.007979362812179</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -19198,7 +19197,7 @@
       </c>
       <c r="E37">
         <f t="shared" si="2"/>
-        <v>36.039219731117278</v>
+        <v>36.149361143057142</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -19218,7 +19217,7 @@
       </c>
       <c r="E38">
         <f t="shared" si="2"/>
-        <v>36.17485041852396</v>
+        <v>36.278187302276642</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -19238,7 +19237,7 @@
       </c>
       <c r="E39">
         <f t="shared" si="2"/>
-        <v>36.298694896344863</v>
+        <v>36.395572861225567</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -19258,7 +19257,7 @@
       </c>
       <c r="E40">
         <f t="shared" si="2"/>
-        <v>36.411777377750731</v>
+        <v>36.502533819568463</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -19278,7 +19277,7 @@
       </c>
       <c r="E41">
         <f t="shared" si="2"/>
-        <v>36.515033072521405</v>
+        <v>36.59999594959595</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -19298,7 +19297,7 @@
       </c>
       <c r="E42">
         <f t="shared" si="2"/>
-        <v>36.609315921376727</v>
+        <v>36.688802809002013</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -19318,7 +19317,7 @@
       </c>
       <c r="E43">
         <f t="shared" si="2"/>
-        <v>36.695405658199661</v>
+        <v>36.769723042074538</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -19338,7 +19337,7 @@
       </c>
       <c r="E44">
         <f t="shared" si="2"/>
-        <v>36.774014258557223</v>
+        <v>36.843457032492665</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -19358,7 +19357,7 @@
       </c>
       <c r="E45">
         <f t="shared" si="2"/>
-        <v>36.845791827849666</v>
+        <v>36.910642965312562</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -19378,7 +19377,7 @@
       </c>
       <c r="E46">
         <f t="shared" si="2"/>
-        <v>36.911331977783597</v>
+        <v>36.971862350609385</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -19398,7 +19397,7 @@
       </c>
       <c r="E47">
         <f t="shared" si="2"/>
-        <v>36.971176735633513</v>
+        <v>37.027645056583978</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -19418,7 +19417,7 @@
       </c>
       <c r="E48">
         <f t="shared" si="2"/>
-        <v>37.025821026892011</v>
+        <v>37.078473895696952</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -19438,7 +19437,7 @@
       </c>
       <c r="E49">
         <f t="shared" si="2"/>
-        <v>37.075716768380879</v>
+        <v>37.124788803524297</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -19458,7 +19457,7 @@
       </c>
       <c r="E50">
         <f t="shared" si="2"/>
-        <v>37.121276605673806</v>
+        <v>37.166990646503386</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -19478,7 +19477,7 @@
       </c>
       <c r="E51">
         <f t="shared" si="2"/>
-        <v>37.162877325739672</v>
+        <v>37.205444691526452</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -19498,7 +19497,7 @@
       </c>
       <c r="E52">
         <f t="shared" si="2"/>
-        <v>37.200862973029679</v>
+        <v>37.240483767411568</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -19518,7 +19517,7 @@
       </c>
       <c r="E53">
         <f t="shared" si="2"/>
-        <v>37.235547694778624</v>
+        <v>37.272411145614463</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -19538,7 +19537,7 @@
       </c>
       <c r="E54">
         <f t="shared" si="2"/>
-        <v>37.267218339051638</v>
+        <v>37.30150316511444</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -19558,7 +19557,7 @@
       </c>
       <c r="E55">
         <f t="shared" si="2"/>
-        <v>37.296136827022451</v>
+        <v>37.328011624193309</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -19578,7 +19577,7 @@
       </c>
       <c r="E56">
         <f t="shared" si="2"/>
-        <v>37.322542319102403</v>
+        <v>37.352165959808836</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -19598,7 +19597,7 @@
       </c>
       <c r="E57">
         <f t="shared" si="2"/>
-        <v>37.346653192834388</v>
+        <v>37.374175233425682</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -19618,7 +19617,7 @@
       </c>
       <c r="E58">
         <f t="shared" si="2"/>
-        <v>37.368668848909259</v>
+        <v>37.394229940491584</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -19638,7 +19637,7 @@
       </c>
       <c r="E59">
         <f t="shared" si="2"/>
-        <v>37.388771360240639</v>
+        <v>37.412503659220384</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -19658,7 +19657,7 @@
       </c>
       <c r="E60">
         <f t="shared" si="2"/>
-        <v>37.407126977736404</v>
+        <v>37.429154552952305</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -19678,7 +19677,7 @@
       </c>
       <c r="E61">
         <f t="shared" si="2"/>
-        <v>37.423887505219582</v>
+        <v>37.444326739094954</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -19698,7 +19697,7 @@
       </c>
       <c r="E62">
         <f t="shared" si="2"/>
-        <v>37.439191554869744</v>
+        <v>37.458151536493411</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -19718,7 +19717,7 @@
       </c>
       <c r="E63">
         <f t="shared" si="2"/>
-        <v>37.453165693567328</v>
+        <v>37.470748602025807</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -19738,7 +19737,7 @@
       </c>
       <c r="E64">
         <f t="shared" si="2"/>
-        <v>37.465925489621519</v>
+        <v>37.482226966261727</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -19758,7 +19757,7 @@
       </c>
       <c r="E65">
         <f t="shared" si="2"/>
-        <v>37.477576468538217</v>
+        <v>37.492685977147524</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -19778,7 +19777,7 @@
       </c>
       <c r="E66">
         <f t="shared" si="2"/>
-        <v>37.488214985732441</v>
+        <v>37.502216159886196</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -19797,8 +19796,8 @@
         <v>6.5</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:E92" si="5">$G$1*(1-EXP(-D67/$F$1))</f>
-        <v>37.497929023402669</v>
+        <f t="shared" ref="E67:E92" si="5">$G$1*(1-EXP(-D67*$F$1))</f>
+        <v>37.510900000454299</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -19818,7 +19817,7 @@
       </c>
       <c r="E68">
         <f t="shared" si="5"/>
-        <v>37.506798918157344</v>
+        <v>37.518812659537573</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -19838,7 +19837,7 @@
       </c>
       <c r="E69">
         <f t="shared" si="5"/>
-        <v>37.514898025411192</v>
+        <v>37.526022623064307</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -19858,7 +19857,7 @@
       </c>
       <c r="E70">
         <f t="shared" si="5"/>
-        <v>37.522293326045926</v>
+        <v>37.532592294967237</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -19878,7 +19877,7 @@
       </c>
       <c r="E71">
         <f t="shared" si="5"/>
-        <v>37.52904598035262</v>
+        <v>37.538578537304268</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -19898,7 +19897,7 @@
       </c>
       <c r="E72">
         <f t="shared" si="5"/>
-        <v>37.535211833836868</v>
+        <v>37.544033162412966</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -19918,7 +19917,7 @@
       </c>
       <c r="E73">
         <f t="shared" si="5"/>
-        <v>37.540841879069831</v>
+        <v>37.549003381358567</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -19938,7 +19937,7 @@
       </c>
       <c r="E74">
         <f t="shared" si="5"/>
-        <v>37.545982677404751</v>
+        <v>37.553532212556846</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -19958,7 +19957,7 @@
       </c>
       <c r="E75">
         <f t="shared" si="5"/>
-        <v>37.550676744046633</v>
+        <v>37.557658854108652</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -19978,7 +19977,7 @@
       </c>
       <c r="E76">
         <f t="shared" si="5"/>
-        <v>37.554962899659607</v>
+        <v>37.561419023068716</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -19998,7 +19997,7 @@
       </c>
       <c r="E77">
         <f t="shared" si="5"/>
-        <v>37.55887659141991</v>
+        <v>37.564845264585138</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -20018,7 +20017,7 @@
       </c>
       <c r="E78">
         <f t="shared" si="5"/>
-        <v>37.562450186169556</v>
+        <v>37.56796723358535</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -20038,7 +20037,7 @@
       </c>
       <c r="E79">
         <f t="shared" si="5"/>
-        <v>37.565713238095157</v>
+        <v>37.570811951446466</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -20058,7 +20057,7 @@
       </c>
       <c r="E80">
         <f t="shared" si="5"/>
-        <v>37.568692733145689</v>
+        <v>37.57340403987169</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -20078,7 +20077,7 @@
       </c>
       <c r="E81">
         <f t="shared" si="5"/>
-        <v>37.571413312210481</v>
+        <v>37.575765933996948</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -20098,7 +20097,7 @@
       </c>
       <c r="E82">
         <f t="shared" si="5"/>
-        <v>37.573897474903255</v>
+        <v>37.577918076572274</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -20118,7 +20117,7 @@
       </c>
       <c r="E83">
         <f t="shared" si="5"/>
-        <v>37.576165765637384</v>
+        <v>37.579879094898615</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -20138,7 +20137,7 @@
       </c>
       <c r="E84">
         <f t="shared" si="5"/>
-        <v>37.578236943531458</v>
+        <v>37.581665962051545</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -20158,7 +20157,7 @@
       </c>
       <c r="E85">
         <f t="shared" si="5"/>
-        <v>37.580128137550084</v>
+        <v>37.583294143787185</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -20178,7 +20177,7 @@
       </c>
       <c r="E86">
         <f t="shared" si="5"/>
-        <v>37.581854988163123</v>
+        <v>37.584777732402003</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -20198,7 +20197,7 @@
       </c>
       <c r="E87">
         <f t="shared" si="5"/>
-        <v>37.583431776694795</v>
+        <v>37.586129568704933</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -20218,7 +20217,7 @@
       </c>
       <c r="E88">
         <f t="shared" si="5"/>
-        <v>37.584871543432492</v>
+        <v>37.587361353157632</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -20238,7 +20237,7 @@
       </c>
       <c r="E89">
         <f t="shared" si="5"/>
-        <v>37.586186195471967</v>
+        <v>37.5884837471447</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -20258,7 +20257,7 @@
       </c>
       <c r="E90">
         <f t="shared" si="5"/>
-        <v>37.587386605190865</v>
+        <v>37.58950646525048</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -20278,7 +20277,7 @@
       </c>
       <c r="E91">
         <f t="shared" si="5"/>
-        <v>37.588482700165031</v>
+        <v>37.590438359341107</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -20298,7 +20297,7 @@
       </c>
       <c r="E92">
         <f t="shared" si="5"/>
-        <v>37.589483545271051</v>
+        <v>37.591287495179451</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">

--- a/MotorData.xlsx
+++ b/MotorData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark\Documents\GitHub\Cube\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D72A773-6C21-47CB-972A-C66ED4F3B029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C92F205-0D83-4DEE-91A4-EBAB1F8A943F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="6600" yWindow="1965" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{EC7B1352-56D2-4F86-A349-4A1459A01683}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{EC7B1352-56D2-4F86-A349-4A1459A01683}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>diff</t>
   </si>
@@ -58,6 +58,18 @@
   </si>
   <si>
     <t>filtered</t>
+  </si>
+  <si>
+    <t>rad/s2</t>
+  </si>
+  <si>
+    <t>g*cm2/s2</t>
+  </si>
+  <si>
+    <t>max torque is 705000, closely matching the stall torque of 700000</t>
+  </si>
+  <si>
+    <t>average is closer to the listed torque of 250000</t>
   </si>
 </sst>
 </file>
@@ -10648,15 +10660,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -18449,10 +18461,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95588423-1919-4188-9DF0-1F3766B91E31}">
-  <dimension ref="A1:G150"/>
+  <dimension ref="A1:I150"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="H104" sqref="H104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18460,7 +18472,7 @@
     <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -18479,8 +18491,11 @@
       <c r="G1">
         <v>37.6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1">
+        <v>2740</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -18499,8 +18514,14 @@
         <f>$G$1*(1-EXP(-D2*$F$1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>43</v>
       </c>
@@ -18519,8 +18540,16 @@
         <f t="shared" ref="E3:E66" si="2">$G$1*(1-EXP(-D3*$F$1))</f>
         <v>3.3391243888651196</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <f>(C3-C2)*2*PI()/(D3-D2)</f>
+        <v>135.08848410436099</v>
+      </c>
+      <c r="G3">
+        <f>F3*$H$1</f>
+        <v>370142.44644594908</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>125</v>
       </c>
@@ -18539,8 +18568,19 @@
         <f t="shared" si="2"/>
         <v>6.3817128286793281</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <f t="shared" ref="F4:F22" si="3">(C4-C3)*2*PI()/(D4-D3)</f>
+        <v>257.61059759436336</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G21" si="4">F4*$H$1</f>
+        <v>705853.03740855563</v>
+      </c>
+      <c r="I4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>195</v>
       </c>
@@ -18559,8 +18599,16 @@
         <f t="shared" si="2"/>
         <v>9.1540996391142233</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <f t="shared" si="3"/>
+        <v>219.91148575128531</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="4"/>
+        <v>602557.47095852171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>254</v>
       </c>
@@ -18579,8 +18627,16 @@
         <f t="shared" si="2"/>
         <v>11.680280481089243</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <f t="shared" si="3"/>
+        <v>185.35396656179756</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="4"/>
+        <v>507869.86837932531</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>306</v>
       </c>
@@ -18599,8 +18655,16 @@
         <f t="shared" si="2"/>
         <v>13.982120044869507</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <f t="shared" si="3"/>
+        <v>163.36281798666943</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="4"/>
+        <v>447614.1212834742</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>350</v>
       </c>
@@ -18619,8 +18683,16 @@
         <f t="shared" si="2"/>
         <v>16.079541294110591</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <f t="shared" si="3"/>
+        <v>138.23007675795085</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="4"/>
+        <v>378750.41031678533</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>389</v>
       </c>
@@ -18639,8 +18711,16 @@
         <f t="shared" si="2"/>
         <v>17.990697903802079</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <f t="shared" si="3"/>
+        <v>122.52211349000204</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="4"/>
+        <v>335710.59096260561</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>423</v>
       </c>
@@ -18659,8 +18739,16 @@
         <f t="shared" si="2"/>
         <v>19.732131384600969</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <f t="shared" si="3"/>
+        <v>106.81415022205304</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="4"/>
+        <v>292670.77160842536</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>453</v>
       </c>
@@ -18679,8 +18767,16 @@
         <f t="shared" si="2"/>
         <v>21.318914253503007</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <f t="shared" si="3"/>
+        <v>94.247779607693474</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="4"/>
+        <v>258238.91612508011</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>480</v>
       </c>
@@ -18699,8 +18795,16 @@
         <f t="shared" si="2"/>
         <v>22.764780490027803</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <f t="shared" si="3"/>
+        <v>84.823001646924197</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="4"/>
+        <v>232415.0245125723</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>504</v>
       </c>
@@ -18719,8 +18823,16 @@
         <f t="shared" si="2"/>
         <v>24.082244407046836</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <f t="shared" si="3"/>
+        <v>75.398223686155475</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="4"/>
+        <v>206591.132900066</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>526</v>
       </c>
@@ -18739,8 +18851,16 @@
         <f t="shared" si="2"/>
         <v>25.282708965109276</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <f t="shared" si="3"/>
+        <v>69.115038378975257</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="4"/>
+        <v>189375.2051583922</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>544</v>
       </c>
@@ -18759,8 +18879,16 @@
         <f t="shared" si="2"/>
         <v>26.376564467751649</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <f t="shared" si="3"/>
+        <v>56.548667764616361</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="4"/>
+        <v>154943.34967504884</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>563</v>
       </c>
@@ -18779,8 +18907,16 @@
         <f t="shared" si="2"/>
         <v>27.37327849202255</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <f t="shared" si="3"/>
+        <v>59.690260418205973</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="4"/>
+        <v>163551.31354588436</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>578</v>
       </c>
@@ -18799,8 +18935,16 @@
         <f t="shared" si="2"/>
         <v>28.281477832592198</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <f t="shared" si="3"/>
+        <v>47.123889803846858</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="4"/>
+        <v>129119.45806254039</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>592</v>
       </c>
@@ -18819,8 +18963,16 @@
         <f t="shared" si="2"/>
         <v>29.109023168692506</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <f t="shared" si="3"/>
+        <v>43.982297150257217</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="4"/>
+        <v>120511.49419170477</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>605</v>
       </c>
@@ -18839,8 +18991,16 @@
         <f t="shared" si="2"/>
         <v>29.863077100147493</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <f t="shared" si="3"/>
+        <v>40.840704496667186</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="4"/>
+        <v>111903.53032086809</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>617</v>
       </c>
@@ -18859,8 +19019,16 @@
         <f t="shared" si="2"/>
         <v>30.550166141362034</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <f t="shared" si="3"/>
+        <v>37.699111843077574</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="4"/>
+        <v>103295.56645003255</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>628</v>
       </c>
@@ -18879,8 +19047,16 @@
         <f t="shared" si="2"/>
         <v>31.176237209841421</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <f t="shared" si="3"/>
+        <v>34.557519189487735</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="4"/>
+        <v>94687.602579196391</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>637</v>
       </c>
@@ -18899,8 +19075,16 @@
         <f t="shared" si="2"/>
         <v>31.746709098163304</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <f t="shared" si="3"/>
+        <v>28.274333882308131</v>
+      </c>
+      <c r="G22">
+        <f>F22*$H$1</f>
+        <v>77471.674837524275</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>647</v>
       </c>
@@ -18919,8 +19103,23 @@
         <f t="shared" si="2"/>
         <v>32.266519374903865</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <f t="shared" ref="F23:F86" si="5">(C23-C22)*2*PI()/(D23-D22)</f>
+        <v>31.415926535897821</v>
+      </c>
+      <c r="G23">
+        <f t="shared" ref="G23:G86" si="6">F23*$H$1</f>
+        <v>86079.638708360028</v>
+      </c>
+      <c r="H23">
+        <f>AVERAGE(G3:G22)</f>
+        <v>274163.64928612753</v>
+      </c>
+      <c r="I23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>654</v>
       </c>
@@ -18939,8 +19138,16 @@
         <f t="shared" si="2"/>
         <v>32.740167120457009</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <f t="shared" si="5"/>
+        <v>21.991148575128523</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="6"/>
+        <v>60255.747095852152</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>663</v>
       </c>
@@ -18959,8 +19166,16 @@
         <f t="shared" si="2"/>
         <v>33.171751867634946</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <f t="shared" si="5"/>
+        <v>28.274333882308415</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="6"/>
+        <v>77471.674837525061</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>668</v>
       </c>
@@ -18979,8 +19194,16 @@
         <f t="shared" si="2"/>
         <v>33.565009084090441</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <f t="shared" si="5"/>
+        <v>15.707963267948882</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="6"/>
+        <v>43039.819354179934</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>675</v>
       </c>
@@ -18999,8 +19222,16 @@
         <f t="shared" si="2"/>
         <v>33.92334250366924</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <f t="shared" si="5"/>
+        <v>21.991148575128719</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="6"/>
+        <v>60255.74709585269</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>681</v>
       </c>
@@ -19019,8 +19250,16 @@
         <f t="shared" si="2"/>
         <v>34.249853586528324</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <f t="shared" si="5"/>
+        <v>18.849555921538649</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="6"/>
+        <v>51647.783225015897</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>687</v>
       </c>
@@ -19039,8 +19278,16 @@
         <f t="shared" si="2"/>
         <v>34.547368363004189</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <f t="shared" si="5"/>
+        <v>18.849555921538926</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="6"/>
+        <v>51647.783225016654</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>691</v>
       </c>
@@ -19059,8 +19306,16 @@
         <f t="shared" si="2"/>
         <v>34.818461893571047</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <f t="shared" si="5"/>
+        <v>12.566370614358949</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="6"/>
+        <v>34431.855483343519</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>695</v>
       </c>
@@ -19079,8 +19334,16 @@
         <f t="shared" si="2"/>
         <v>35.065480556595908</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <f t="shared" si="5"/>
+        <v>12.566370614359283</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="6"/>
+        <v>34431.855483344436</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>700</v>
       </c>
@@ -19099,8 +19362,16 @@
         <f t="shared" si="2"/>
         <v>35.290562356795995</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <f t="shared" si="5"/>
+        <v>15.707963267949021</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="6"/>
+        <v>43039.819354180319</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>704</v>
       </c>
@@ -19119,8 +19390,16 @@
         <f t="shared" si="2"/>
         <v>35.495655430173279</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <f t="shared" si="5"/>
+        <v>12.566370614358949</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="6"/>
+        <v>34431.855483343519</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>707</v>
       </c>
@@ -19139,8 +19418,16 @@
         <f t="shared" si="2"/>
         <v>35.682534905590408</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <f t="shared" si="5"/>
+        <v>9.4247779607696867</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="6"/>
+        <v>25823.891612508942</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>710</v>
       </c>
@@ -19159,8 +19446,16 @@
         <f t="shared" si="2"/>
         <v>35.852818268929255</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <f t="shared" si="5"/>
+        <v>9.4247779607688766</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="6"/>
+        <v>25823.891612506723</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>714</v>
       </c>
@@ -19179,8 +19474,16 @@
         <f t="shared" si="2"/>
         <v>36.007979362812179</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36">
+        <f t="shared" si="5"/>
+        <v>12.566370614359395</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="6"/>
+        <v>34431.855483344742</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>716</v>
       </c>
@@ -19199,8 +19502,16 @@
         <f t="shared" si="2"/>
         <v>36.149361143057142</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <f t="shared" si="5"/>
+        <v>6.2831853071796413</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="6"/>
+        <v>17215.927741672218</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>719</v>
       </c>
@@ -19219,8 +19530,16 @@
         <f t="shared" si="2"/>
         <v>36.278187302276642</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <f t="shared" si="5"/>
+        <v>9.4247779607697701</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="6"/>
+        <v>25823.891612509171</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>722</v>
       </c>
@@ -19239,8 +19558,16 @@
         <f t="shared" si="2"/>
         <v>36.395572861225567</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <f t="shared" si="5"/>
+        <v>9.4247779607687932</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="6"/>
+        <v>25823.891612506493</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>723</v>
       </c>
@@ -19259,8 +19586,16 @@
         <f t="shared" si="2"/>
         <v>36.502533819568463</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40">
+        <f t="shared" si="5"/>
+        <v>3.1415926535900724</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="6"/>
+        <v>8607.9638708367984</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>726</v>
       </c>
@@ -19279,8 +19614,16 @@
         <f t="shared" si="2"/>
         <v>36.59999594959595</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41">
+        <f t="shared" si="5"/>
+        <v>9.4247779607693243</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="6"/>
+        <v>25823.891612507949</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>728</v>
       </c>
@@ -19299,8 +19642,16 @@
         <f t="shared" si="2"/>
         <v>36.688802809002013</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42">
+        <f t="shared" si="5"/>
+        <v>6.2831853071796413</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="6"/>
+        <v>17215.927741672218</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>729</v>
       </c>
@@ -19319,8 +19670,16 @@
         <f t="shared" si="2"/>
         <v>36.769723042074538</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F43">
+        <f t="shared" si="5"/>
+        <v>3.1415926535896257</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="6"/>
+        <v>8607.9638708355742</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>731</v>
       </c>
@@ -19339,8 +19698,16 @@
         <f t="shared" si="2"/>
         <v>36.843457032492665</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F44">
+        <f t="shared" si="5"/>
+        <v>6.2831853071796413</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="6"/>
+        <v>17215.927741672218</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>733</v>
       </c>
@@ -19359,8 +19726,16 @@
         <f t="shared" si="2"/>
         <v>36.910642965312562</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F45">
+        <f t="shared" si="5"/>
+        <v>6.2831853071796973</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="6"/>
+        <v>17215.927741672371</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>734</v>
       </c>
@@ -19379,8 +19754,16 @@
         <f t="shared" si="2"/>
         <v>36.971862350609385</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F46">
+        <f t="shared" si="5"/>
+        <v>3.1415926535896257</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="6"/>
+        <v>8607.9638708355742</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>735</v>
       </c>
@@ -19399,8 +19782,16 @@
         <f t="shared" si="2"/>
         <v>37.027645056583978</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F47">
+        <f t="shared" si="5"/>
+        <v>3.1415926535895977</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="6"/>
+        <v>8607.9638708354978</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>737</v>
       </c>
@@ -19419,8 +19810,16 @@
         <f t="shared" si="2"/>
         <v>37.078473895696952</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48">
+        <f t="shared" si="5"/>
+        <v>6.2831853071801449</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="6"/>
+        <v>17215.927741673597</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>738</v>
       </c>
@@ -19439,8 +19838,16 @@
         <f t="shared" si="2"/>
         <v>37.124788803524297</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49">
+        <f t="shared" si="5"/>
+        <v>3.1415926535895977</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="6"/>
+        <v>8607.9638708354978</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>739</v>
       </c>
@@ -19459,8 +19866,16 @@
         <f t="shared" si="2"/>
         <v>37.166990646503386</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F50">
+        <f t="shared" si="5"/>
+        <v>3.1415926535896257</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="6"/>
+        <v>8607.9638708355742</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>740</v>
       </c>
@@ -19479,8 +19894,16 @@
         <f t="shared" si="2"/>
         <v>37.205444691526452</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F51">
+        <f t="shared" si="5"/>
+        <v>3.1415926535900724</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="6"/>
+        <v>8607.9638708367984</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>740</v>
       </c>
@@ -19499,8 +19922,16 @@
         <f t="shared" si="2"/>
         <v>37.240483767411568</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F52">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>742</v>
       </c>
@@ -19519,8 +19950,16 @@
         <f t="shared" si="2"/>
         <v>37.272411145614463</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F53">
+        <f t="shared" si="5"/>
+        <v>6.2831853071792514</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="6"/>
+        <v>17215.927741671148</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>743</v>
       </c>
@@ -19539,8 +19978,16 @@
         <f t="shared" si="2"/>
         <v>37.30150316511444</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F54">
+        <f t="shared" si="5"/>
+        <v>3.1415926535900445</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="6"/>
+        <v>8607.963870836722</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>743</v>
       </c>
@@ -19559,8 +20006,16 @@
         <f t="shared" si="2"/>
         <v>37.328011624193309</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F55">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>744</v>
       </c>
@@ -19579,8 +20034,16 @@
         <f t="shared" si="2"/>
         <v>37.352165959808836</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F56">
+        <f t="shared" si="5"/>
+        <v>3.1415926535900724</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="6"/>
+        <v>8607.9638708367984</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>745</v>
       </c>
@@ -19599,8 +20062,16 @@
         <f t="shared" si="2"/>
         <v>37.374175233425682</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F57">
+        <f t="shared" si="5"/>
+        <v>3.1415926535895977</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="6"/>
+        <v>8607.9638708354978</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>745</v>
       </c>
@@ -19619,8 +20090,16 @@
         <f t="shared" si="2"/>
         <v>37.394229940491584</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F58">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>746</v>
       </c>
@@ -19639,8 +20118,16 @@
         <f t="shared" si="2"/>
         <v>37.412503659220384</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F59">
+        <f t="shared" si="5"/>
+        <v>3.1415926535895977</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="6"/>
+        <v>8607.9638708354978</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>746</v>
       </c>
@@ -19659,8 +20146,16 @@
         <f t="shared" si="2"/>
         <v>37.429154552952305</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F60">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>747</v>
       </c>
@@ -19679,8 +20174,16 @@
         <f t="shared" si="2"/>
         <v>37.444326739094954</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F61">
+        <f t="shared" si="5"/>
+        <v>3.1415926535896257</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="6"/>
+        <v>8607.9638708355742</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>747</v>
       </c>
@@ -19699,8 +20202,16 @@
         <f t="shared" si="2"/>
         <v>37.458151536493411</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F62">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>748</v>
       </c>
@@ -19719,8 +20230,16 @@
         <f t="shared" si="2"/>
         <v>37.470748602025807</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F63">
+        <f t="shared" si="5"/>
+        <v>3.1415926535900724</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="6"/>
+        <v>8607.9638708367984</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>748</v>
       </c>
@@ -19739,8 +20258,16 @@
         <f t="shared" si="2"/>
         <v>37.482226966261727</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F64">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>749</v>
       </c>
@@ -19759,8 +20286,16 @@
         <f t="shared" si="2"/>
         <v>37.492685977147524</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F65">
+        <f t="shared" si="5"/>
+        <v>3.1415926535896257</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="6"/>
+        <v>8607.9638708355742</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>748</v>
       </c>
@@ -19779,8 +20314,16 @@
         <f t="shared" si="2"/>
         <v>37.502216159886196</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F66">
+        <f t="shared" si="5"/>
+        <v>-3.1415926535896257</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="6"/>
+        <v>-8607.9638708355742</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>749</v>
       </c>
@@ -19788,19 +20331,27 @@
         <v>7551</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67:C130" si="3">A67/200/0.1</f>
+        <f t="shared" ref="C67:C130" si="7">A67/200/0.1</f>
         <v>37.449999999999996</v>
       </c>
       <c r="D67">
-        <f t="shared" ref="D67:D130" si="4">B67/1000 - 1.051</f>
+        <f t="shared" ref="D67:D130" si="8">B67/1000 - 1.051</f>
         <v>6.5</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:E92" si="5">$G$1*(1-EXP(-D67*$F$1))</f>
+        <f t="shared" ref="E67:E92" si="9">$G$1*(1-EXP(-D67*$F$1))</f>
         <v>37.510900000454299</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F67">
+        <f t="shared" si="5"/>
+        <v>3.1415926535895977</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="6"/>
+        <v>8607.9638708354978</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>750</v>
       </c>
@@ -19808,19 +20359,27 @@
         <v>7651</v>
       </c>
       <c r="C68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>37.5</v>
       </c>
       <c r="D68">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>6.6</v>
       </c>
       <c r="E68">
+        <f t="shared" si="9"/>
+        <v>37.518812659537573</v>
+      </c>
+      <c r="F68">
         <f t="shared" si="5"/>
-        <v>37.518812659537573</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3.1415926535900724</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="6"/>
+        <v>8607.9638708367984</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>749</v>
       </c>
@@ -19828,19 +20387,27 @@
         <v>7751</v>
       </c>
       <c r="C69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>37.449999999999996</v>
       </c>
       <c r="D69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>6.7</v>
       </c>
       <c r="E69">
+        <f t="shared" si="9"/>
+        <v>37.526022623064307</v>
+      </c>
+      <c r="F69">
         <f t="shared" si="5"/>
-        <v>37.526022623064307</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-3.1415926535900445</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="6"/>
+        <v>-8607.963870836722</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>750</v>
       </c>
@@ -19848,19 +20415,27 @@
         <v>7851</v>
       </c>
       <c r="C70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>37.5</v>
       </c>
       <c r="D70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>6.8</v>
       </c>
       <c r="E70">
+        <f t="shared" si="9"/>
+        <v>37.532592294967237</v>
+      </c>
+      <c r="F70">
         <f t="shared" si="5"/>
-        <v>37.532592294967237</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3.1415926535900724</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="6"/>
+        <v>8607.9638708367984</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>750</v>
       </c>
@@ -19868,19 +20443,27 @@
         <v>7951</v>
       </c>
       <c r="C71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>37.5</v>
       </c>
       <c r="D71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>6.8999999999999995</v>
       </c>
       <c r="E71">
+        <f t="shared" si="9"/>
+        <v>37.538578537304268</v>
+      </c>
+      <c r="F71">
         <f t="shared" si="5"/>
-        <v>37.538578537304268</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>750</v>
       </c>
@@ -19888,19 +20471,27 @@
         <v>8051</v>
       </c>
       <c r="C72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>37.5</v>
       </c>
       <c r="D72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="E72">
+        <f t="shared" si="9"/>
+        <v>37.544033162412966</v>
+      </c>
+      <c r="F72">
         <f t="shared" si="5"/>
-        <v>37.544033162412966</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>751</v>
       </c>
@@ -19908,19 +20499,27 @@
         <v>8151</v>
       </c>
       <c r="C73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>37.549999999999997</v>
       </c>
       <c r="D73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7.1</v>
       </c>
       <c r="E73">
+        <f t="shared" si="9"/>
+        <v>37.549003381358567</v>
+      </c>
+      <c r="F73">
         <f t="shared" si="5"/>
-        <v>37.549003381358567</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3.1415926535896257</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="6"/>
+        <v>8607.9638708355742</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>750</v>
       </c>
@@ -19928,19 +20527,27 @@
         <v>8251</v>
       </c>
       <c r="C74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>37.5</v>
       </c>
       <c r="D74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7.1999999999999993</v>
       </c>
       <c r="E74">
+        <f t="shared" si="9"/>
+        <v>37.553532212556846</v>
+      </c>
+      <c r="F74">
         <f t="shared" si="5"/>
-        <v>37.553532212556846</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-3.1415926535896257</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="6"/>
+        <v>-8607.9638708355742</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>751</v>
       </c>
@@ -19948,19 +20555,27 @@
         <v>8351</v>
       </c>
       <c r="C75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>37.549999999999997</v>
       </c>
       <c r="D75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7.3000000000000007</v>
       </c>
       <c r="E75">
+        <f t="shared" si="9"/>
+        <v>37.557658854108652</v>
+      </c>
+      <c r="F75">
         <f t="shared" si="5"/>
-        <v>37.557658854108652</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3.1415926535895697</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="6"/>
+        <v>8607.9638708354214</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>751</v>
       </c>
@@ -19968,19 +20583,27 @@
         <v>8451</v>
       </c>
       <c r="C76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>37.549999999999997</v>
       </c>
       <c r="D76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7.4</v>
       </c>
       <c r="E76">
+        <f t="shared" si="9"/>
+        <v>37.561419023068716</v>
+      </c>
+      <c r="F76">
         <f t="shared" si="5"/>
-        <v>37.561419023068716</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>751</v>
       </c>
@@ -19988,19 +20611,27 @@
         <v>8551</v>
       </c>
       <c r="C77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>37.549999999999997</v>
       </c>
       <c r="D77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7.5</v>
       </c>
       <c r="E77">
+        <f t="shared" si="9"/>
+        <v>37.564845264585138</v>
+      </c>
+      <c r="F77">
         <f t="shared" si="5"/>
-        <v>37.564845264585138</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>751</v>
       </c>
@@ -20008,19 +20639,27 @@
         <v>8651</v>
       </c>
       <c r="C78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>37.549999999999997</v>
       </c>
       <c r="D78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7.6</v>
       </c>
       <c r="E78">
+        <f t="shared" si="9"/>
+        <v>37.56796723358535</v>
+      </c>
+      <c r="F78">
         <f t="shared" si="5"/>
-        <v>37.56796723358535</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>751</v>
       </c>
@@ -20028,19 +20667,27 @@
         <v>8751</v>
       </c>
       <c r="C79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>37.549999999999997</v>
       </c>
       <c r="D79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7.6999999999999993</v>
       </c>
       <c r="E79">
+        <f t="shared" si="9"/>
+        <v>37.570811951446466</v>
+      </c>
+      <c r="F79">
         <f t="shared" si="5"/>
-        <v>37.570811951446466</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>751</v>
       </c>
@@ -20048,19 +20695,27 @@
         <v>8851</v>
       </c>
       <c r="C80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>37.549999999999997</v>
       </c>
       <c r="D80">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7.8000000000000007</v>
       </c>
       <c r="E80">
+        <f t="shared" si="9"/>
+        <v>37.57340403987169</v>
+      </c>
+      <c r="F80">
         <f t="shared" si="5"/>
-        <v>37.57340403987169</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>752</v>
       </c>
@@ -20068,19 +20723,27 @@
         <v>8951</v>
       </c>
       <c r="C81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>37.599999999999994</v>
       </c>
       <c r="D81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7.9</v>
       </c>
       <c r="E81">
+        <f t="shared" si="9"/>
+        <v>37.575765933996948</v>
+      </c>
+      <c r="F81">
         <f t="shared" si="5"/>
-        <v>37.575765933996948</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3.1415926535896257</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="6"/>
+        <v>8607.9638708355742</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>752</v>
       </c>
@@ -20088,19 +20751,27 @@
         <v>9051</v>
       </c>
       <c r="C82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>37.599999999999994</v>
       </c>
       <c r="D82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="E82">
+        <f t="shared" si="9"/>
+        <v>37.577918076572274</v>
+      </c>
+      <c r="F82">
         <f t="shared" si="5"/>
-        <v>37.577918076572274</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>751</v>
       </c>
@@ -20108,19 +20779,27 @@
         <v>9151</v>
       </c>
       <c r="C83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>37.549999999999997</v>
       </c>
       <c r="D83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>8.1</v>
       </c>
       <c r="E83">
+        <f t="shared" si="9"/>
+        <v>37.579879094898615</v>
+      </c>
+      <c r="F83">
         <f t="shared" si="5"/>
-        <v>37.579879094898615</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-3.1415926535896257</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="6"/>
+        <v>-8607.9638708355742</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>752</v>
       </c>
@@ -20128,19 +20807,27 @@
         <v>9251</v>
       </c>
       <c r="C84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>37.599999999999994</v>
       </c>
       <c r="D84">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>8.1999999999999993</v>
       </c>
       <c r="E84">
+        <f t="shared" si="9"/>
+        <v>37.581665962051545</v>
+      </c>
+      <c r="F84">
         <f t="shared" si="5"/>
-        <v>37.581665962051545</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3.1415926535896257</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="6"/>
+        <v>8607.9638708355742</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>751</v>
       </c>
@@ -20148,19 +20835,27 @@
         <v>9351</v>
       </c>
       <c r="C85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>37.549999999999997</v>
       </c>
       <c r="D85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>8.3000000000000007</v>
       </c>
       <c r="E85">
+        <f t="shared" si="9"/>
+        <v>37.583294143787185</v>
+      </c>
+      <c r="F85">
         <f t="shared" si="5"/>
-        <v>37.583294143787185</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-3.1415926535895697</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="6"/>
+        <v>-8607.9638708354214</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>752</v>
       </c>
@@ -20168,19 +20863,27 @@
         <v>9451</v>
       </c>
       <c r="C86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>37.599999999999994</v>
       </c>
       <c r="D86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>8.4</v>
       </c>
       <c r="E86">
+        <f t="shared" si="9"/>
+        <v>37.584777732402003</v>
+      </c>
+      <c r="F86">
         <f t="shared" si="5"/>
-        <v>37.584777732402003</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3.1415926535896257</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="6"/>
+        <v>8607.9638708355742</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>752</v>
       </c>
@@ -20188,19 +20891,27 @@
         <v>9551</v>
       </c>
       <c r="C87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>37.599999999999994</v>
       </c>
       <c r="D87">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>8.5</v>
       </c>
       <c r="E87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>37.586129568704933</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F87">
+        <f t="shared" ref="F87:F92" si="10">(C87-C86)*2*PI()/(D87-D86)</f>
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <f t="shared" ref="G87:G134" si="11">F87*$H$1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>752</v>
       </c>
@@ -20208,19 +20919,27 @@
         <v>9651</v>
       </c>
       <c r="C88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>37.599999999999994</v>
       </c>
       <c r="D88">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>8.6</v>
       </c>
       <c r="E88">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>37.587361353157632</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F88">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>752</v>
       </c>
@@ -20228,19 +20947,27 @@
         <v>9751</v>
       </c>
       <c r="C89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>37.599999999999994</v>
       </c>
       <c r="D89">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>8.6999999999999993</v>
       </c>
       <c r="E89">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>37.5884837471447</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F89">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>752</v>
       </c>
@@ -20248,19 +20975,27 @@
         <v>9851</v>
       </c>
       <c r="C90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>37.599999999999994</v>
       </c>
       <c r="D90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>8.8000000000000007</v>
       </c>
       <c r="E90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>37.58950646525048</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F90">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>752</v>
       </c>
@@ -20268,19 +21003,27 @@
         <v>9951</v>
       </c>
       <c r="C91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>37.599999999999994</v>
       </c>
       <c r="D91">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>8.9</v>
       </c>
       <c r="E91">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>37.590438359341107</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F91">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>752</v>
       </c>
@@ -20288,19 +21031,27 @@
         <v>10051</v>
       </c>
       <c r="C92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>37.599999999999994</v>
       </c>
       <c r="D92">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="E92">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>37.591287495179451</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F92">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>735</v>
       </c>
@@ -20308,15 +21059,27 @@
         <v>10151</v>
       </c>
       <c r="C93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>36.749999999999993</v>
       </c>
       <c r="D93">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>9.1</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F93">
+        <f t="shared" ref="F93:F134" si="12">(C93-C92)*2*PI()/(D93-D92)</f>
+        <v>-53.407075111026764</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="11"/>
+        <v>-146335.38580421332</v>
+      </c>
+      <c r="H93">
+        <f>G93/(C93*2*PI())</f>
+        <v>-633.74149659864281</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>701</v>
       </c>
@@ -20324,15 +21087,27 @@
         <v>10251</v>
       </c>
       <c r="C94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>35.049999999999997</v>
       </c>
       <c r="D94">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>9.1999999999999993</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F94">
+        <f t="shared" si="12"/>
+        <v>-106.81415022205307</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="11"/>
+        <v>-292670.77160842542</v>
+      </c>
+      <c r="H94">
+        <f>G94/(C94*2*PI())</f>
+        <v>-1328.958630527819</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>666</v>
       </c>
@@ -20340,15 +21115,27 @@
         <v>10351</v>
       </c>
       <c r="C95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>33.299999999999997</v>
       </c>
       <c r="D95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>9.3000000000000007</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F95">
+        <f t="shared" si="12"/>
+        <v>-109.95574287564119</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="11"/>
+        <v>-301278.73547925689</v>
+      </c>
+      <c r="H95">
+        <f>G95/(C95*2*PI())</f>
+        <v>-1439.9399399399197</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>631</v>
       </c>
@@ -20356,15 +21143,27 @@
         <v>10451</v>
       </c>
       <c r="C96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>31.549999999999997</v>
       </c>
       <c r="D96">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>9.4</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F96">
+        <f t="shared" si="12"/>
+        <v>-109.95574287564315</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="11"/>
+        <v>-301278.73547926225</v>
+      </c>
+      <c r="H96">
+        <f>G96/(C96*2*PI())</f>
+        <v>-1519.8098256735398</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>595</v>
       </c>
@@ -20372,15 +21171,27 @@
         <v>10551</v>
       </c>
       <c r="C97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>29.75</v>
       </c>
       <c r="D97">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>9.5</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F97">
+        <f t="shared" si="12"/>
+        <v>-113.09733552923278</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="11"/>
+        <v>-309886.6993500978</v>
+      </c>
+      <c r="H97">
+        <f>G97/(C97*2*PI())</f>
+        <v>-1657.8151260504235</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>557</v>
       </c>
@@ -20388,15 +21199,27 @@
         <v>10651</v>
       </c>
       <c r="C98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>27.85</v>
       </c>
       <c r="D98">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>9.6</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F98">
+        <f t="shared" si="12"/>
+        <v>-119.38052083641247</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="11"/>
+        <v>-327102.62709177018</v>
+      </c>
+      <c r="H98">
+        <f>G98/(C98*2*PI())</f>
+        <v>-1869.2998204667915</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>520</v>
       </c>
@@ -20404,15 +21227,27 @@
         <v>10751</v>
       </c>
       <c r="C99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="D99">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>9.6999999999999993</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F99">
+        <f t="shared" si="12"/>
+        <v>-116.23892818282285</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="11"/>
+        <v>-318494.66322093457</v>
+      </c>
+      <c r="H99">
+        <f>G99/(C99*2*PI())</f>
+        <v>-1949.6153846153927</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>482</v>
       </c>
@@ -20420,15 +21255,27 @@
         <v>10851</v>
       </c>
       <c r="C100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>24.1</v>
       </c>
       <c r="D100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>9.8000000000000007</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F100">
+        <f t="shared" si="12"/>
+        <v>-119.38052083641035</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="11"/>
+        <v>-327102.62709176436</v>
+      </c>
+      <c r="H100">
+        <f>G100/(C100*2*PI())</f>
+        <v>-2160.1659751037018</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>443</v>
       </c>
@@ -20436,15 +21283,27 @@
         <v>10951</v>
       </c>
       <c r="C101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>22.15</v>
       </c>
       <c r="D101">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>9.9</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F101">
+        <f t="shared" si="12"/>
+        <v>-122.52211349000254</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="11"/>
+        <v>-335710.59096260695</v>
+      </c>
+      <c r="H101">
+        <f>G101/(C101*2*PI())</f>
+        <v>-2412.1896162528342</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>403</v>
       </c>
@@ -20452,15 +21311,27 @@
         <v>11051</v>
       </c>
       <c r="C102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>20.149999999999999</v>
       </c>
       <c r="D102">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F102">
+        <f t="shared" si="12"/>
+        <v>-125.66370614359217</v>
+      </c>
+      <c r="G102">
+        <f t="shared" si="11"/>
+        <v>-344318.55483344255</v>
+      </c>
+      <c r="H102">
+        <f>G102/(C102*2*PI())</f>
+        <v>-2719.6029776675036</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>365</v>
       </c>
@@ -20468,15 +21339,27 @@
         <v>11151</v>
       </c>
       <c r="C103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>18.25</v>
       </c>
       <c r="D103">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>10.1</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F103">
+        <f t="shared" si="12"/>
+        <v>-119.38052083641247</v>
+      </c>
+      <c r="G103">
+        <f t="shared" si="11"/>
+        <v>-327102.62709177018</v>
+      </c>
+      <c r="H103">
+        <f>G103/(C103*2*PI())</f>
+        <v>-2852.6027397260355</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>325</v>
       </c>
@@ -20484,15 +21367,27 @@
         <v>11251</v>
       </c>
       <c r="C104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>16.25</v>
       </c>
       <c r="D104">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>10.199999999999999</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F104">
+        <f t="shared" si="12"/>
+        <v>-125.66370614359217</v>
+      </c>
+      <c r="G104">
+        <f t="shared" si="11"/>
+        <v>-344318.55483344255</v>
+      </c>
+      <c r="H104">
+        <f>G104/(C104*2*PI())</f>
+        <v>-3372.3076923077047</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>288</v>
       </c>
@@ -20500,15 +21395,27 @@
         <v>11351</v>
       </c>
       <c r="C105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>14.399999999999999</v>
       </c>
       <c r="D105">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>10.3</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F105">
+        <f t="shared" si="12"/>
+        <v>-116.23892818282079</v>
+      </c>
+      <c r="G105">
+        <f t="shared" si="11"/>
+        <v>-318494.66322092892</v>
+      </c>
+      <c r="H105">
+        <f>G105/(C105*2*PI())</f>
+        <v>-3520.1388888888418</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>251</v>
       </c>
@@ -20516,15 +21423,27 @@
         <v>11451</v>
       </c>
       <c r="C106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>12.549999999999999</v>
       </c>
       <c r="D106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>10.4</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F106">
+        <f t="shared" si="12"/>
+        <v>-116.23892818282275</v>
+      </c>
+      <c r="G106">
+        <f t="shared" si="11"/>
+        <v>-318494.66322093434</v>
+      </c>
+      <c r="H106">
+        <f>G106/(C106*2*PI())</f>
+        <v>-4039.0438247012098</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>216</v>
       </c>
@@ -20532,15 +21451,27 @@
         <v>11551</v>
       </c>
       <c r="C107">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>10.8</v>
       </c>
       <c r="D107">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>10.5</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F107">
+        <f t="shared" si="12"/>
+        <v>-109.95574287564304</v>
+      </c>
+      <c r="G107">
+        <f t="shared" si="11"/>
+        <v>-301278.7354792619</v>
+      </c>
+      <c r="H107">
+        <f>G107/(C107*2*PI())</f>
+        <v>-4439.8148148148257</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>185</v>
       </c>
@@ -20548,15 +21479,27 @@
         <v>11651</v>
       </c>
       <c r="C108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>9.25</v>
       </c>
       <c r="D108">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>10.6</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F108">
+        <f t="shared" si="12"/>
+        <v>-97.389372261283981</v>
+      </c>
+      <c r="G108">
+        <f t="shared" si="11"/>
+        <v>-266846.87999591813</v>
+      </c>
+      <c r="H108">
+        <f>G108/(C108*2*PI())</f>
+        <v>-4591.3513513513699</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>155</v>
       </c>
@@ -20564,15 +21507,27 @@
         <v>11751</v>
       </c>
       <c r="C109">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7.75</v>
       </c>
       <c r="D109">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>10.7</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F109">
+        <f t="shared" si="12"/>
+        <v>-94.247779607694127</v>
+      </c>
+      <c r="G109">
+        <f t="shared" si="11"/>
+        <v>-258238.91612508192</v>
+      </c>
+      <c r="H109">
+        <f>G109/(C109*2*PI())</f>
+        <v>-5303.2258064516318</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>130</v>
       </c>
@@ -20580,15 +21535,27 @@
         <v>11851</v>
       </c>
       <c r="C110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>6.5</v>
       </c>
       <c r="D110">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>10.8</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F110">
+        <f t="shared" si="12"/>
+        <v>-78.539816339743709</v>
+      </c>
+      <c r="G110">
+        <f t="shared" si="11"/>
+        <v>-215199.09677089777</v>
+      </c>
+      <c r="H110">
+        <f>G110/(C110*2*PI())</f>
+        <v>-5269.230769230694</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>108</v>
       </c>
@@ -20596,15 +21563,27 @@
         <v>11951</v>
       </c>
       <c r="C111">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>5.4</v>
       </c>
       <c r="D111">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>10.9</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F111">
+        <f t="shared" si="12"/>
+        <v>-69.115038378975669</v>
+      </c>
+      <c r="G111">
+        <f t="shared" si="11"/>
+        <v>-189375.20515839334</v>
+      </c>
+      <c r="H111">
+        <f>G111/(C111*2*PI())</f>
+        <v>-5581.481481481499</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>88</v>
       </c>
@@ -20612,15 +21591,27 @@
         <v>12051</v>
       </c>
       <c r="C112">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>4.3999999999999995</v>
       </c>
       <c r="D112">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F112">
+        <f t="shared" si="12"/>
+        <v>-62.831853071796139</v>
+      </c>
+      <c r="G112">
+        <f t="shared" si="11"/>
+        <v>-172159.27741672142</v>
+      </c>
+      <c r="H112">
+        <f>G112/(C112*2*PI())</f>
+        <v>-6227.2727272727552</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>72</v>
       </c>
@@ -20628,15 +21619,27 @@
         <v>12151</v>
       </c>
       <c r="C113">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3.5999999999999996</v>
       </c>
       <c r="D113">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>11.1</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F113">
+        <f t="shared" si="12"/>
+        <v>-50.26548245743686</v>
+      </c>
+      <c r="G113">
+        <f t="shared" si="11"/>
+        <v>-137727.42193337699</v>
+      </c>
+      <c r="H113">
+        <f>G113/(C113*2*PI())</f>
+        <v>-6088.8888888889096</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>59</v>
       </c>
@@ -20644,15 +21647,27 @@
         <v>12251</v>
       </c>
       <c r="C114">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2.9499999999999997</v>
       </c>
       <c r="D114">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>11.2</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F114">
+        <f t="shared" si="12"/>
+        <v>-40.840704496667449</v>
+      </c>
+      <c r="G114">
+        <f t="shared" si="11"/>
+        <v>-111903.53032086881</v>
+      </c>
+      <c r="H114">
+        <f>G114/(C114*2*PI())</f>
+        <v>-6037.2881355932413</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>47</v>
       </c>
@@ -20660,15 +21675,27 @@
         <v>12351</v>
       </c>
       <c r="C115">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2.3499999999999996</v>
       </c>
       <c r="D115">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>11.3</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F115">
+        <f t="shared" si="12"/>
+        <v>-37.699111843076984</v>
+      </c>
+      <c r="G115">
+        <f t="shared" si="11"/>
+        <v>-103295.56645003094</v>
+      </c>
+      <c r="H115">
+        <f>G115/(C115*2*PI())</f>
+        <v>-6995.7446808509658</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>37</v>
       </c>
@@ -20676,15 +21703,27 @@
         <v>12451</v>
       </c>
       <c r="C116">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.8499999999999999</v>
       </c>
       <c r="D116">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>11.4</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F116">
+        <f t="shared" si="12"/>
+        <v>-31.415926535898031</v>
+      </c>
+      <c r="G116">
+        <f t="shared" si="11"/>
+        <v>-86079.63870836061</v>
+      </c>
+      <c r="H116">
+        <f>G116/(C116*2*PI())</f>
+        <v>-7405.4054054054295</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>30</v>
       </c>
@@ -20692,15 +21731,27 @@
         <v>12551</v>
       </c>
       <c r="C117">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.4999999999999998</v>
       </c>
       <c r="D117">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>11.5</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F117">
+        <f t="shared" si="12"/>
+        <v>-21.991148575128634</v>
+      </c>
+      <c r="G117">
+        <f t="shared" si="11"/>
+        <v>-60255.747095852457</v>
+      </c>
+      <c r="H117">
+        <f>G117/(C117*2*PI())</f>
+        <v>-6393.3333333333585</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>23</v>
       </c>
@@ -20708,15 +21759,27 @@
         <v>12651</v>
       </c>
       <c r="C118">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.1499999999999999</v>
       </c>
       <c r="D118">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>11.6</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F118">
+        <f t="shared" si="12"/>
+        <v>-21.991148575128619</v>
+      </c>
+      <c r="G118">
+        <f t="shared" si="11"/>
+        <v>-60255.747095852414</v>
+      </c>
+      <c r="H118">
+        <f>G118/(C118*2*PI())</f>
+        <v>-8339.1304347826353</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>18</v>
       </c>
@@ -20724,15 +21787,27 @@
         <v>12751</v>
       </c>
       <c r="C119">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.89999999999999991</v>
       </c>
       <c r="D119">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>11.7</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F119">
+        <f t="shared" si="12"/>
+        <v>-15.707963267949021</v>
+      </c>
+      <c r="G119">
+        <f t="shared" si="11"/>
+        <v>-43039.819354180319</v>
+      </c>
+      <c r="H119">
+        <f>G119/(C119*2*PI())</f>
+        <v>-7611.1111111111395</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>14</v>
       </c>
@@ -20740,15 +21815,27 @@
         <v>12851</v>
       </c>
       <c r="C120">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.70000000000000007</v>
       </c>
       <c r="D120">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>11.8</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F120">
+        <f t="shared" si="12"/>
+        <v>-12.566370614358984</v>
+      </c>
+      <c r="G120">
+        <f t="shared" si="11"/>
+        <v>-34431.855483343614</v>
+      </c>
+      <c r="H120">
+        <f>G120/(C120*2*PI())</f>
+        <v>-7828.5714285713102</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>9</v>
       </c>
@@ -20756,15 +21843,27 @@
         <v>12951</v>
       </c>
       <c r="C121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.44999999999999996</v>
       </c>
       <c r="D121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>11.9</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F121">
+        <f t="shared" si="12"/>
+        <v>-15.707963267949028</v>
+      </c>
+      <c r="G121">
+        <f t="shared" si="11"/>
+        <v>-43039.819354180334</v>
+      </c>
+      <c r="H121">
+        <f>G121/(C121*2*PI())</f>
+        <v>-15222.222222222284</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>7</v>
       </c>
@@ -20772,15 +21871,27 @@
         <v>13051</v>
       </c>
       <c r="C122">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.35000000000000003</v>
       </c>
       <c r="D122">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F122">
+        <f t="shared" si="12"/>
+        <v>-6.283185307179604</v>
+      </c>
+      <c r="G122">
+        <f t="shared" si="11"/>
+        <v>-17215.927741672116</v>
+      </c>
+      <c r="H122">
+        <f>G122/(C122*2*PI())</f>
+        <v>-7828.5714285714512</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>5</v>
       </c>
@@ -20788,15 +21899,27 @@
         <v>13151</v>
       </c>
       <c r="C123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.25</v>
       </c>
       <c r="D123">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>12.1</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F123">
+        <f t="shared" si="12"/>
+        <v>-6.2831853071796111</v>
+      </c>
+      <c r="G123">
+        <f t="shared" si="11"/>
+        <v>-17215.927741672134</v>
+      </c>
+      <c r="H123">
+        <f>G123/(C123*2*PI())</f>
+        <v>-10960.000000000044</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>2</v>
       </c>
@@ -20804,15 +21927,27 @@
         <v>13251</v>
       </c>
       <c r="C124">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>9.9999999999999992E-2</v>
       </c>
       <c r="D124">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>12.2</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F124">
+        <f t="shared" si="12"/>
+        <v>-9.4247779607694131</v>
+      </c>
+      <c r="G124">
+        <f t="shared" si="11"/>
+        <v>-25823.891612508192</v>
+      </c>
+      <c r="H124">
+        <f>G124/(C124*2*PI())</f>
+        <v>-41100.000000000146</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>1</v>
       </c>
@@ -20820,15 +21955,27 @@
         <v>13351</v>
       </c>
       <c r="C125">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>4.9999999999999996E-2</v>
       </c>
       <c r="D125">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>12.3</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F125">
+        <f t="shared" si="12"/>
+        <v>-3.1415926535897483</v>
+      </c>
+      <c r="G125">
+        <f t="shared" si="11"/>
+        <v>-8607.9638708359107</v>
+      </c>
+      <c r="H125">
+        <f>G125/(C125*2*PI())</f>
+        <v>-27399.999999999611</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>-1</v>
       </c>
@@ -20836,15 +21983,27 @@
         <v>13451</v>
       </c>
       <c r="C126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-4.9999999999999996E-2</v>
       </c>
       <c r="D126">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>12.4</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F126">
+        <f t="shared" si="12"/>
+        <v>-6.2831853071796084</v>
+      </c>
+      <c r="G126">
+        <f t="shared" si="11"/>
+        <v>-17215.927741672127</v>
+      </c>
+      <c r="H126">
+        <f>G126/(C126*2*PI())</f>
+        <v>54800.000000000196</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>0</v>
       </c>
@@ -20852,15 +22011,23 @@
         <v>13551</v>
       </c>
       <c r="C127">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D127">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>12.5</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F127">
+        <f t="shared" si="12"/>
+        <v>3.1415926535898042</v>
+      </c>
+      <c r="G127">
+        <f t="shared" si="11"/>
+        <v>8607.9638708360635</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>0</v>
       </c>
@@ -20868,15 +22035,23 @@
         <v>13651</v>
       </c>
       <c r="C128">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D128">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>12.6</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F128">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G128">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>0</v>
       </c>
@@ -20884,15 +22059,23 @@
         <v>13751</v>
       </c>
       <c r="C129">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D129">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>12.7</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F129">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G129">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>0</v>
       </c>
@@ -20900,15 +22083,23 @@
         <v>13851</v>
       </c>
       <c r="C130">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D130">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>12.8</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F130">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G130">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>0</v>
       </c>
@@ -20916,15 +22107,23 @@
         <v>13951</v>
       </c>
       <c r="C131">
-        <f t="shared" ref="C131:C150" si="6">A131/200/0.1</f>
+        <f t="shared" ref="C131:C150" si="13">A131/200/0.1</f>
         <v>0</v>
       </c>
       <c r="D131">
-        <f t="shared" ref="D131:D150" si="7">B131/1000 - 1.051</f>
+        <f t="shared" ref="D131:D150" si="14">B131/1000 - 1.051</f>
         <v>12.9</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F131">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G131">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>0</v>
       </c>
@@ -20932,15 +22131,23 @@
         <v>14051</v>
       </c>
       <c r="C132">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D132">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F132">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>0</v>
       </c>
@@ -20948,15 +22155,23 @@
         <v>14151</v>
       </c>
       <c r="C133">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D133">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>13.1</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F133">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G133">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>0</v>
       </c>
@@ -20964,15 +22179,23 @@
         <v>14251</v>
       </c>
       <c r="C134">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D134">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>13.2</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F134">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G134">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>0</v>
       </c>
@@ -20980,15 +22203,15 @@
         <v>14351</v>
       </c>
       <c r="C135">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D135">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>13.3</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>0</v>
       </c>
@@ -20996,15 +22219,15 @@
         <v>14451</v>
       </c>
       <c r="C136">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D136">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>13.4</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>0</v>
       </c>
@@ -21012,15 +22235,15 @@
         <v>14551</v>
       </c>
       <c r="C137">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D137">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>13.5</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>0</v>
       </c>
@@ -21028,15 +22251,15 @@
         <v>14651</v>
       </c>
       <c r="C138">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D138">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>13.6</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>0</v>
       </c>
@@ -21044,15 +22267,15 @@
         <v>14751</v>
       </c>
       <c r="C139">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D139">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>13.7</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>0</v>
       </c>
@@ -21060,15 +22283,15 @@
         <v>14851</v>
       </c>
       <c r="C140">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D140">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>13.8</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>0</v>
       </c>
@@ -21076,15 +22299,15 @@
         <v>14951</v>
       </c>
       <c r="C141">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D141">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>13.9</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>0</v>
       </c>
@@ -21092,15 +22315,15 @@
         <v>15051</v>
       </c>
       <c r="C142">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D142">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>14</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>0</v>
       </c>
@@ -21108,15 +22331,15 @@
         <v>15151</v>
       </c>
       <c r="C143">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D143">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>14.1</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>0</v>
       </c>
@@ -21124,11 +22347,11 @@
         <v>15251</v>
       </c>
       <c r="C144">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D144">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>14.2</v>
       </c>
     </row>
@@ -21140,11 +22363,11 @@
         <v>15351</v>
       </c>
       <c r="C145">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D145">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>14.3</v>
       </c>
     </row>
@@ -21156,11 +22379,11 @@
         <v>15451</v>
       </c>
       <c r="C146">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D146">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>14.4</v>
       </c>
     </row>
@@ -21172,11 +22395,11 @@
         <v>15551</v>
       </c>
       <c r="C147">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D147">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>14.5</v>
       </c>
     </row>
@@ -21188,11 +22411,11 @@
         <v>15651</v>
       </c>
       <c r="C148">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D148">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>14.6</v>
       </c>
     </row>
@@ -21204,11 +22427,11 @@
         <v>15751</v>
       </c>
       <c r="C149">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D149">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>14.7</v>
       </c>
     </row>
@@ -21220,11 +22443,11 @@
         <v>15851</v>
       </c>
       <c r="C150">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D150">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>14.8</v>
       </c>
     </row>
